--- a/ImmPort/CompletedTemplates/U01subjectHumans.xlsx
+++ b/ImmPort/CompletedTemplates/U01subjectHumans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\CompletedTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21097A9F-51EF-4B4B-92B0-9BB9BD24DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5EA38-3079-417C-9A62-A5FA25978A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1005">
   <si>
     <t>subjecthumans</t>
   </si>
@@ -2826,238 +2826,532 @@
     <t>White</t>
   </si>
   <si>
-    <t>INF018</t>
-  </si>
-  <si>
-    <t>arm-cohort_1716_3</t>
-  </si>
-  <si>
-    <t>INF039</t>
-  </si>
-  <si>
-    <t>arm-cohort_1716_1</t>
-  </si>
-  <si>
-    <t>INF053</t>
-  </si>
-  <si>
-    <t>INF055</t>
-  </si>
-  <si>
-    <t>INF059</t>
-  </si>
-  <si>
-    <t>INF064</t>
-  </si>
-  <si>
-    <t>arm-cohort_1716_2</t>
-  </si>
-  <si>
-    <t>INF070</t>
-  </si>
-  <si>
-    <t>INF101</t>
-  </si>
-  <si>
-    <t>INF124</t>
-  </si>
-  <si>
-    <t>INF134</t>
-  </si>
-  <si>
-    <t>INF136</t>
-  </si>
-  <si>
-    <t>INF148</t>
-  </si>
-  <si>
-    <t>INF149</t>
-  </si>
-  <si>
-    <t>INF159</t>
-  </si>
-  <si>
-    <t>INF161</t>
+    <t>INF052</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>ILT_01</t>
+  </si>
+  <si>
+    <t>AntibodyPanel</t>
+  </si>
+  <si>
+    <t>ICS_Media</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>study_1716</t>
+  </si>
+  <si>
+    <t>protocol_1716_1</t>
+  </si>
+  <si>
+    <t>plannedvisit_1716_1</t>
+  </si>
+  <si>
+    <t>Cord blood</t>
+  </si>
+  <si>
+    <t>Spectral Flow Cytometry</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>TetramerPanel</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>TetramerControlPanel</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>ICS_PMA</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Antibody</t>
   </si>
   <si>
     <t>INF171</t>
   </si>
   <si>
-    <t>INF179</t>
-  </si>
-  <si>
-    <t>INF180</t>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Antibody</t>
   </si>
   <si>
     <t>INF182</t>
   </si>
   <si>
-    <t>INF187</t>
-  </si>
-  <si>
-    <t>INF191</t>
-  </si>
-  <si>
-    <t>INF212</t>
-  </si>
-  <si>
-    <t>INF229</t>
-  </si>
-  <si>
-    <t>INF248</t>
-  </si>
-  <si>
-    <t>INF251</t>
-  </si>
-  <si>
-    <t>INF274</t>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Antibody</t>
   </si>
   <si>
     <t>INF281</t>
   </si>
   <si>
-    <t>INF282</t>
-  </si>
-  <si>
-    <t>INF287</t>
-  </si>
-  <si>
-    <t>INF305</t>
-  </si>
-  <si>
-    <t>INF313</t>
-  </si>
-  <si>
-    <t>INF314</t>
-  </si>
-  <si>
-    <t>INF343</t>
-  </si>
-  <si>
-    <t>INF374</t>
-  </si>
-  <si>
-    <t>INF421</t>
-  </si>
-  <si>
-    <t>INF438</t>
-  </si>
-  <si>
-    <t>INF579</t>
-  </si>
-  <si>
-    <t>INF587</t>
-  </si>
-  <si>
-    <t>INF041</t>
-  </si>
-  <si>
-    <t>INF356</t>
-  </si>
-  <si>
-    <t>INF523</t>
-  </si>
-  <si>
-    <t>INF032</t>
-  </si>
-  <si>
-    <t>INF156</t>
-  </si>
-  <si>
-    <t>INF052</t>
-  </si>
-  <si>
-    <t>INF105</t>
-  </si>
-  <si>
-    <t>INF028</t>
-  </si>
-  <si>
-    <t>INF071</t>
-  </si>
-  <si>
-    <t>INF100</t>
-  </si>
-  <si>
-    <t>INF169</t>
-  </si>
-  <si>
-    <t>INF173</t>
-  </si>
-  <si>
-    <t>INF185</t>
-  </si>
-  <si>
-    <t>INF235</t>
-  </si>
-  <si>
-    <t>INF250</t>
-  </si>
-  <si>
-    <t>INF269</t>
-  </si>
-  <si>
-    <t>INF278</t>
-  </si>
-  <si>
-    <t>INF293</t>
-  </si>
-  <si>
-    <t>INF315</t>
-  </si>
-  <si>
-    <t>INF318</t>
-  </si>
-  <si>
-    <t>INF320</t>
-  </si>
-  <si>
-    <t>INF342</t>
-  </si>
-  <si>
-    <t>INF387</t>
-  </si>
-  <si>
-    <t>INF479</t>
-  </si>
-  <si>
-    <t>INF548</t>
-  </si>
-  <si>
-    <t>INF557</t>
-  </si>
-  <si>
-    <t>INF568</t>
-  </si>
-  <si>
-    <t>INF574</t>
-  </si>
-  <si>
-    <t>INF599</t>
-  </si>
-  <si>
-    <t>INF661</t>
-  </si>
-  <si>
-    <t>INF665</t>
-  </si>
-  <si>
-    <t>INF692</t>
-  </si>
-  <si>
-    <t>INF694</t>
-  </si>
-  <si>
-    <t>INF718</t>
-  </si>
-  <si>
-    <t>INF759</t>
-  </si>
-  <si>
-    <t>INF786</t>
-  </si>
-  <si>
-    <t>INF809</t>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND006_v1-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>ND006</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND006_v1-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>PBMC</t>
+  </si>
+  <si>
+    <t>ILT_01-ND006_v1-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND006_v1-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>ND050</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR4 BUV615 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV615 CD194</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR4 BUV615 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR6 BV786 (Cells)</t>
+  </si>
+  <si>
+    <t>BV786 CD196</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR6 BV786 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR7 BV650 (Cells)</t>
+  </si>
+  <si>
+    <t>BV650 CD197</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR7 BV650 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD107a APC-R700 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-R700 CD107a</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD107a APC-R700 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD127 BV421 (Cells)</t>
+  </si>
+  <si>
+    <t>BV421 CD127</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD127 BV421 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD16 APC (Cells)</t>
+  </si>
+  <si>
+    <t>APC CD16</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD16 APC (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD161 BV480 (Cells)</t>
+  </si>
+  <si>
+    <t>BV480 CD161</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD161 BV480 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Cy5 CD25</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells)</t>
+  </si>
+  <si>
+    <t>PerCP-Cy5.5 CD26</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-Fire 750 CD27</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 488 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 FITC (Cells)</t>
+  </si>
+  <si>
+    <t>FITC CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 FITC (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells)</t>
+  </si>
+  <si>
+    <t>Spark Blue 550 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-Fire 810 CD38</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD4 BUV805 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV805 CD4</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD4 BUV805 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD45RA BV510 (Cells)</t>
+  </si>
+  <si>
+    <t>BV510 CD45RA</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD45RA BV510 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD56 BV605 (Cells)</t>
+  </si>
+  <si>
+    <t>BV605 CD56</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD56 BV605 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD62L BUV395 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV395 CD62L</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD62L BUV395 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD69 BUV563 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV563 CD69</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD69 BUV563 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD7 BV711 (Cells)</t>
+  </si>
+  <si>
+    <t>BV711 CD7</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD7 BV711 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD8 BUV496 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV496 CD8</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD8 BUV496 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV615 CD183</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells)</t>
+  </si>
+  <si>
+    <t>Pacific Blue CD14</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells)</t>
+  </si>
+  <si>
+    <t>Pacific Blue CD19</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_IFNg BV750 (Cells)</t>
+  </si>
+  <si>
+    <t>BV750 IFNg</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_IFNg BV750 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_NKG2D PE (Cells)</t>
+  </si>
+  <si>
+    <t>PE CD314</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_NKG2D PE (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Vio770 PD1</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Dazzle594 TNFa</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_VD2 BUV661 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV661 VD2</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_VD2 BUV661 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Viability Zombie NIR (Cells)</t>
+  </si>
+  <si>
+    <t>Zombie NIR Viability</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Viability Zombie NIR (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells)</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells).fcs</t>
   </si>
 </sst>
 </file>
@@ -3076,12 +3370,14 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3516,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V200"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A34" sqref="A4:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3823,7 @@
     <col min="1" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3535,12 +3831,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3608,2557 +3904,3268 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C4" t="s">
         <v>829</v>
       </c>
-      <c r="C4" t="s">
-        <v>830</v>
-      </c>
       <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4">
+        <v>831</v>
+      </c>
+      <c r="E4" t="s">
+        <v>832</v>
+      </c>
+      <c r="F4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G4" t="s">
+        <v>834</v>
+      </c>
+      <c r="L4" t="s">
+        <v>835</v>
+      </c>
+      <c r="M4" t="s">
+        <v>836</v>
+      </c>
+      <c r="N4" t="s">
+        <v>829</v>
+      </c>
+      <c r="O4" t="s">
+        <v>837</v>
+      </c>
+      <c r="P4" t="s">
+        <v>838</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="U4" t="s">
         <v>539</v>
       </c>
-      <c r="H4" t="s">
-        <v>551</v>
-      </c>
-      <c r="K4" t="s">
-        <v>660</v>
-      </c>
-      <c r="L4" t="s">
-        <v>822</v>
-      </c>
-      <c r="M4" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>543</v>
+      </c>
+      <c r="X4" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C5" t="s">
+        <v>829</v>
+      </c>
+      <c r="D5" t="s">
         <v>831</v>
       </c>
-      <c r="C5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>841</v>
+      </c>
+      <c r="F5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G5" t="s">
+        <v>842</v>
+      </c>
+      <c r="L5" t="s">
+        <v>835</v>
+      </c>
+      <c r="M5" t="s">
+        <v>836</v>
+      </c>
+      <c r="N5" t="s">
+        <v>829</v>
+      </c>
+      <c r="O5" t="s">
+        <v>837</v>
+      </c>
+      <c r="P5" t="s">
+        <v>838</v>
+      </c>
+      <c r="T5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="U5" t="s">
         <v>539</v>
       </c>
-      <c r="H5" t="s">
-        <v>551</v>
-      </c>
-      <c r="K5" t="s">
-        <v>660</v>
-      </c>
-      <c r="L5" t="s">
-        <v>822</v>
-      </c>
-      <c r="M5" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>543</v>
+      </c>
+      <c r="X5" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E6" t="s">
+        <v>844</v>
+      </c>
+      <c r="F6" t="s">
         <v>833</v>
       </c>
-      <c r="C6" t="s">
-        <v>830</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6">
+      <c r="G6" t="s">
+        <v>845</v>
+      </c>
+      <c r="L6" t="s">
+        <v>835</v>
+      </c>
+      <c r="M6" t="s">
+        <v>836</v>
+      </c>
+      <c r="N6" t="s">
+        <v>829</v>
+      </c>
+      <c r="O6" t="s">
+        <v>837</v>
+      </c>
+      <c r="P6" t="s">
+        <v>838</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="U6" t="s">
         <v>539</v>
       </c>
-      <c r="H6" t="s">
-        <v>551</v>
-      </c>
-      <c r="K6" t="s">
-        <v>660</v>
-      </c>
-      <c r="L6" t="s">
-        <v>822</v>
-      </c>
-      <c r="M6" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>543</v>
+      </c>
+      <c r="X6" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="C7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7">
+        <v>831</v>
+      </c>
+      <c r="E7" t="s">
+        <v>847</v>
+      </c>
+      <c r="F7" t="s">
+        <v>833</v>
+      </c>
+      <c r="G7" t="s">
+        <v>848</v>
+      </c>
+      <c r="L7" t="s">
+        <v>835</v>
+      </c>
+      <c r="M7" t="s">
+        <v>836</v>
+      </c>
+      <c r="N7" t="s">
+        <v>829</v>
+      </c>
+      <c r="O7" t="s">
+        <v>837</v>
+      </c>
+      <c r="P7" t="s">
+        <v>838</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="U7" t="s">
         <v>539</v>
       </c>
-      <c r="H7" t="s">
-        <v>551</v>
-      </c>
-      <c r="K7" t="s">
-        <v>660</v>
-      </c>
-      <c r="L7" t="s">
-        <v>822</v>
-      </c>
-      <c r="M7" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>543</v>
+      </c>
+      <c r="X7" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C8" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E8" t="s">
+        <v>832</v>
+      </c>
+      <c r="F8" t="s">
+        <v>850</v>
+      </c>
+      <c r="G8" t="s">
+        <v>851</v>
+      </c>
+      <c r="L8" t="s">
         <v>835</v>
       </c>
-      <c r="C8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8">
+      <c r="M8" t="s">
+        <v>836</v>
+      </c>
+      <c r="N8" t="s">
+        <v>829</v>
+      </c>
+      <c r="O8" t="s">
+        <v>837</v>
+      </c>
+      <c r="P8" t="s">
+        <v>838</v>
+      </c>
+      <c r="T8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="U8" t="s">
         <v>539</v>
       </c>
-      <c r="H8" t="s">
-        <v>551</v>
-      </c>
-      <c r="K8" t="s">
-        <v>660</v>
-      </c>
-      <c r="L8" t="s">
-        <v>822</v>
-      </c>
-      <c r="M8" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>543</v>
+      </c>
+      <c r="X8" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" t="s">
+        <v>829</v>
+      </c>
+      <c r="D9" t="s">
+        <v>831</v>
+      </c>
+      <c r="E9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F9" t="s">
+        <v>833</v>
+      </c>
+      <c r="G9" t="s">
+        <v>853</v>
+      </c>
+      <c r="L9" t="s">
+        <v>835</v>
+      </c>
+      <c r="M9" t="s">
         <v>836</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
+        <v>829</v>
+      </c>
+      <c r="O9" t="s">
         <v>837</v>
       </c>
-      <c r="D9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9">
+      <c r="P9" t="s">
+        <v>838</v>
+      </c>
+      <c r="T9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="U9" t="s">
         <v>539</v>
       </c>
-      <c r="H9" t="s">
-        <v>551</v>
-      </c>
-      <c r="K9" t="s">
-        <v>660</v>
-      </c>
-      <c r="L9" t="s">
-        <v>822</v>
-      </c>
-      <c r="M9" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>543</v>
+      </c>
+      <c r="X9" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C10" t="s">
+        <v>855</v>
+      </c>
+      <c r="D10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E10" t="s">
+        <v>832</v>
+      </c>
+      <c r="F10" t="s">
+        <v>833</v>
+      </c>
+      <c r="G10" t="s">
+        <v>856</v>
+      </c>
+      <c r="L10" t="s">
+        <v>835</v>
+      </c>
+      <c r="M10" t="s">
+        <v>836</v>
+      </c>
+      <c r="N10" t="s">
+        <v>855</v>
+      </c>
+      <c r="O10" t="s">
+        <v>837</v>
+      </c>
+      <c r="P10" t="s">
         <v>838</v>
       </c>
-      <c r="C10" t="s">
-        <v>830</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10">
+      <c r="T10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="U10" t="s">
         <v>539</v>
       </c>
-      <c r="H10" t="s">
-        <v>551</v>
-      </c>
-      <c r="K10" t="s">
-        <v>660</v>
-      </c>
-      <c r="L10" t="s">
-        <v>822</v>
-      </c>
-      <c r="M10" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>543</v>
+      </c>
+      <c r="X10" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" t="s">
+        <v>855</v>
+      </c>
+      <c r="D11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E11" t="s">
+        <v>841</v>
+      </c>
+      <c r="F11" t="s">
+        <v>833</v>
+      </c>
+      <c r="G11" t="s">
+        <v>858</v>
+      </c>
+      <c r="L11" t="s">
+        <v>835</v>
+      </c>
+      <c r="M11" t="s">
+        <v>836</v>
+      </c>
+      <c r="N11" t="s">
+        <v>855</v>
+      </c>
+      <c r="O11" t="s">
+        <v>837</v>
+      </c>
+      <c r="P11" t="s">
+        <v>838</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>539</v>
+      </c>
+      <c r="V11" t="s">
+        <v>543</v>
+      </c>
+      <c r="X11" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z11" t="s">
         <v>839</v>
       </c>
-      <c r="C11" t="s">
-        <v>832</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>539</v>
-      </c>
-      <c r="H11" t="s">
-        <v>551</v>
-      </c>
-      <c r="K11" t="s">
-        <v>660</v>
-      </c>
-      <c r="L11" t="s">
-        <v>822</v>
-      </c>
-      <c r="M11" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="C12" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12">
+        <v>831</v>
+      </c>
+      <c r="E12" t="s">
+        <v>844</v>
+      </c>
+      <c r="F12" t="s">
+        <v>833</v>
+      </c>
+      <c r="G12" t="s">
+        <v>860</v>
+      </c>
+      <c r="L12" t="s">
+        <v>835</v>
+      </c>
+      <c r="M12" t="s">
+        <v>836</v>
+      </c>
+      <c r="N12" t="s">
+        <v>855</v>
+      </c>
+      <c r="O12" t="s">
+        <v>837</v>
+      </c>
+      <c r="P12" t="s">
+        <v>838</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="U12" t="s">
         <v>539</v>
       </c>
-      <c r="H12" t="s">
-        <v>551</v>
-      </c>
-      <c r="K12" t="s">
-        <v>660</v>
-      </c>
-      <c r="L12" t="s">
-        <v>822</v>
-      </c>
-      <c r="M12" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>543</v>
+      </c>
+      <c r="X12" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="C13" t="s">
+        <v>855</v>
+      </c>
+      <c r="D13" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" t="s">
+        <v>847</v>
+      </c>
+      <c r="F13" t="s">
+        <v>833</v>
+      </c>
+      <c r="G13" t="s">
+        <v>862</v>
+      </c>
+      <c r="L13" t="s">
+        <v>835</v>
+      </c>
+      <c r="M13" t="s">
+        <v>836</v>
+      </c>
+      <c r="N13" t="s">
+        <v>855</v>
+      </c>
+      <c r="O13" t="s">
         <v>837</v>
       </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13">
+      <c r="P13" t="s">
+        <v>838</v>
+      </c>
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="U13" t="s">
         <v>539</v>
       </c>
-      <c r="H13" t="s">
-        <v>551</v>
-      </c>
-      <c r="K13" t="s">
-        <v>660</v>
-      </c>
-      <c r="L13" t="s">
-        <v>822</v>
-      </c>
-      <c r="M13" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>543</v>
+      </c>
+      <c r="X13" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="C14" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14">
+        <v>831</v>
+      </c>
+      <c r="E14" t="s">
+        <v>832</v>
+      </c>
+      <c r="F14" t="s">
+        <v>850</v>
+      </c>
+      <c r="G14" t="s">
+        <v>864</v>
+      </c>
+      <c r="L14" t="s">
+        <v>835</v>
+      </c>
+      <c r="M14" t="s">
+        <v>836</v>
+      </c>
+      <c r="N14" t="s">
+        <v>855</v>
+      </c>
+      <c r="O14" t="s">
+        <v>837</v>
+      </c>
+      <c r="P14" t="s">
+        <v>838</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="U14" t="s">
         <v>539</v>
       </c>
-      <c r="H14" t="s">
-        <v>551</v>
-      </c>
-      <c r="K14" t="s">
-        <v>660</v>
-      </c>
-      <c r="L14" t="s">
-        <v>822</v>
-      </c>
-      <c r="M14" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>543</v>
+      </c>
+      <c r="X14" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="C15" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15">
+        <v>831</v>
+      </c>
+      <c r="E15" t="s">
+        <v>847</v>
+      </c>
+      <c r="F15" t="s">
+        <v>833</v>
+      </c>
+      <c r="G15" t="s">
+        <v>866</v>
+      </c>
+      <c r="L15" t="s">
+        <v>835</v>
+      </c>
+      <c r="M15" t="s">
+        <v>836</v>
+      </c>
+      <c r="N15" t="s">
+        <v>855</v>
+      </c>
+      <c r="O15" t="s">
+        <v>837</v>
+      </c>
+      <c r="P15" t="s">
+        <v>838</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="U15" t="s">
         <v>539</v>
       </c>
-      <c r="H15" t="s">
-        <v>551</v>
-      </c>
-      <c r="K15" t="s">
-        <v>660</v>
-      </c>
-      <c r="L15" t="s">
-        <v>822</v>
-      </c>
-      <c r="M15" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>543</v>
+      </c>
+      <c r="X15" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="C16" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16">
+        <v>831</v>
+      </c>
+      <c r="E16" t="s">
+        <v>832</v>
+      </c>
+      <c r="F16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G16" t="s">
+        <v>869</v>
+      </c>
+      <c r="L16" t="s">
+        <v>835</v>
+      </c>
+      <c r="M16" t="s">
+        <v>836</v>
+      </c>
+      <c r="N16" t="s">
+        <v>868</v>
+      </c>
+      <c r="O16" t="s">
+        <v>837</v>
+      </c>
+      <c r="P16" t="s">
+        <v>838</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="U16" t="s">
         <v>539</v>
       </c>
-      <c r="H16" t="s">
-        <v>551</v>
-      </c>
-      <c r="K16" t="s">
-        <v>660</v>
-      </c>
-      <c r="L16" t="s">
-        <v>822</v>
-      </c>
-      <c r="M16" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>543</v>
+      </c>
+      <c r="X16" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="C17" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17">
+        <v>831</v>
+      </c>
+      <c r="E17" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" t="s">
+        <v>833</v>
+      </c>
+      <c r="G17" t="s">
+        <v>871</v>
+      </c>
+      <c r="L17" t="s">
+        <v>835</v>
+      </c>
+      <c r="M17" t="s">
+        <v>836</v>
+      </c>
+      <c r="N17" t="s">
+        <v>868</v>
+      </c>
+      <c r="O17" t="s">
+        <v>837</v>
+      </c>
+      <c r="P17" t="s">
+        <v>838</v>
+      </c>
+      <c r="T17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="U17" t="s">
         <v>539</v>
       </c>
-      <c r="H17" t="s">
-        <v>551</v>
-      </c>
-      <c r="K17" t="s">
-        <v>660</v>
-      </c>
-      <c r="L17" t="s">
-        <v>822</v>
-      </c>
-      <c r="M17" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>543</v>
+      </c>
+      <c r="X17" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
       <c r="C18" t="s">
+        <v>868</v>
+      </c>
+      <c r="D18" t="s">
+        <v>831</v>
+      </c>
+      <c r="E18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G18" t="s">
+        <v>873</v>
+      </c>
+      <c r="L18" t="s">
+        <v>835</v>
+      </c>
+      <c r="M18" t="s">
+        <v>836</v>
+      </c>
+      <c r="N18" t="s">
+        <v>868</v>
+      </c>
+      <c r="O18" t="s">
         <v>837</v>
       </c>
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18">
+      <c r="P18" t="s">
+        <v>838</v>
+      </c>
+      <c r="T18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="U18" t="s">
         <v>539</v>
       </c>
-      <c r="H18" t="s">
-        <v>551</v>
-      </c>
-      <c r="K18" t="s">
-        <v>660</v>
-      </c>
-      <c r="L18" t="s">
-        <v>822</v>
-      </c>
-      <c r="M18" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>543</v>
+      </c>
+      <c r="X18" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
+        <v>874</v>
+      </c>
+      <c r="C19" t="s">
+        <v>868</v>
+      </c>
+      <c r="D19" t="s">
+        <v>831</v>
+      </c>
+      <c r="E19" t="s">
         <v>847</v>
       </c>
-      <c r="C19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19">
+      <c r="F19" t="s">
+        <v>833</v>
+      </c>
+      <c r="G19" t="s">
+        <v>875</v>
+      </c>
+      <c r="L19" t="s">
+        <v>835</v>
+      </c>
+      <c r="M19" t="s">
+        <v>836</v>
+      </c>
+      <c r="N19" t="s">
+        <v>868</v>
+      </c>
+      <c r="O19" t="s">
+        <v>837</v>
+      </c>
+      <c r="P19" t="s">
+        <v>838</v>
+      </c>
+      <c r="T19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="U19" t="s">
         <v>539</v>
       </c>
-      <c r="H19" t="s">
-        <v>551</v>
-      </c>
-      <c r="K19" t="s">
-        <v>660</v>
-      </c>
-      <c r="L19" t="s">
-        <v>822</v>
-      </c>
-      <c r="M19" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>543</v>
+      </c>
+      <c r="X19" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="C20" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20">
+        <v>831</v>
+      </c>
+      <c r="E20" t="s">
+        <v>832</v>
+      </c>
+      <c r="F20" t="s">
+        <v>850</v>
+      </c>
+      <c r="G20" t="s">
+        <v>877</v>
+      </c>
+      <c r="L20" t="s">
+        <v>835</v>
+      </c>
+      <c r="M20" t="s">
+        <v>836</v>
+      </c>
+      <c r="N20" t="s">
+        <v>868</v>
+      </c>
+      <c r="O20" t="s">
+        <v>837</v>
+      </c>
+      <c r="P20" t="s">
+        <v>838</v>
+      </c>
+      <c r="T20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="U20" t="s">
         <v>539</v>
       </c>
-      <c r="H20" t="s">
-        <v>551</v>
-      </c>
-      <c r="K20" t="s">
-        <v>660</v>
-      </c>
-      <c r="L20" t="s">
-        <v>822</v>
-      </c>
-      <c r="M20" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>543</v>
+      </c>
+      <c r="X20" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="C21" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21">
+        <v>831</v>
+      </c>
+      <c r="E21" t="s">
+        <v>847</v>
+      </c>
+      <c r="F21" t="s">
+        <v>833</v>
+      </c>
+      <c r="G21" t="s">
+        <v>879</v>
+      </c>
+      <c r="L21" t="s">
+        <v>835</v>
+      </c>
+      <c r="M21" t="s">
+        <v>836</v>
+      </c>
+      <c r="N21" t="s">
+        <v>868</v>
+      </c>
+      <c r="O21" t="s">
+        <v>837</v>
+      </c>
+      <c r="P21" t="s">
+        <v>838</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="U21" t="s">
         <v>539</v>
       </c>
-      <c r="H21" t="s">
-        <v>551</v>
-      </c>
-      <c r="K21" t="s">
-        <v>660</v>
-      </c>
-      <c r="L21" t="s">
-        <v>822</v>
-      </c>
-      <c r="M21" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>543</v>
+      </c>
+      <c r="X21" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C22" t="s">
-        <v>830</v>
+        <v>881</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22">
+        <v>831</v>
+      </c>
+      <c r="E22" t="s">
+        <v>832</v>
+      </c>
+      <c r="F22" t="s">
+        <v>833</v>
+      </c>
+      <c r="G22" t="s">
+        <v>882</v>
+      </c>
+      <c r="L22" t="s">
+        <v>835</v>
+      </c>
+      <c r="M22" t="s">
+        <v>836</v>
+      </c>
+      <c r="N22" t="s">
+        <v>881</v>
+      </c>
+      <c r="O22" t="s">
+        <v>837</v>
+      </c>
+      <c r="P22" t="s">
+        <v>838</v>
+      </c>
+      <c r="T22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
+      <c r="U22" t="s">
         <v>539</v>
       </c>
-      <c r="H22" t="s">
-        <v>551</v>
-      </c>
-      <c r="K22" t="s">
-        <v>660</v>
-      </c>
-      <c r="L22" t="s">
-        <v>822</v>
-      </c>
-      <c r="M22" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>543</v>
+      </c>
+      <c r="X22" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="C23" t="s">
-        <v>832</v>
+        <v>881</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23">
+        <v>831</v>
+      </c>
+      <c r="E23" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" t="s">
+        <v>833</v>
+      </c>
+      <c r="G23" t="s">
+        <v>884</v>
+      </c>
+      <c r="L23" t="s">
+        <v>835</v>
+      </c>
+      <c r="M23" t="s">
+        <v>836</v>
+      </c>
+      <c r="N23" t="s">
+        <v>881</v>
+      </c>
+      <c r="O23" t="s">
+        <v>837</v>
+      </c>
+      <c r="P23" t="s">
+        <v>838</v>
+      </c>
+      <c r="T23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
+      <c r="U23" t="s">
         <v>539</v>
       </c>
-      <c r="H23" t="s">
-        <v>551</v>
-      </c>
-      <c r="K23" t="s">
-        <v>660</v>
-      </c>
-      <c r="L23" t="s">
-        <v>822</v>
-      </c>
-      <c r="M23" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>543</v>
+      </c>
+      <c r="X23" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="C24" t="s">
-        <v>832</v>
+        <v>881</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24">
+        <v>831</v>
+      </c>
+      <c r="E24" t="s">
+        <v>844</v>
+      </c>
+      <c r="F24" t="s">
+        <v>833</v>
+      </c>
+      <c r="G24" t="s">
+        <v>886</v>
+      </c>
+      <c r="L24" t="s">
+        <v>835</v>
+      </c>
+      <c r="M24" t="s">
+        <v>836</v>
+      </c>
+      <c r="N24" t="s">
+        <v>881</v>
+      </c>
+      <c r="O24" t="s">
+        <v>837</v>
+      </c>
+      <c r="P24" t="s">
+        <v>838</v>
+      </c>
+      <c r="T24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
+      <c r="U24" t="s">
         <v>539</v>
       </c>
-      <c r="H24" t="s">
-        <v>551</v>
-      </c>
-      <c r="K24" t="s">
-        <v>660</v>
-      </c>
-      <c r="L24" t="s">
-        <v>822</v>
-      </c>
-      <c r="M24" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>543</v>
+      </c>
+      <c r="X24" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="C25" t="s">
+        <v>881</v>
+      </c>
+      <c r="D25" t="s">
+        <v>831</v>
+      </c>
+      <c r="E25" t="s">
+        <v>847</v>
+      </c>
+      <c r="F25" t="s">
+        <v>833</v>
+      </c>
+      <c r="G25" t="s">
+        <v>888</v>
+      </c>
+      <c r="L25" t="s">
+        <v>835</v>
+      </c>
+      <c r="M25" t="s">
+        <v>836</v>
+      </c>
+      <c r="N25" t="s">
+        <v>881</v>
+      </c>
+      <c r="O25" t="s">
         <v>837</v>
       </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25">
+      <c r="P25" t="s">
+        <v>838</v>
+      </c>
+      <c r="T25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="U25" t="s">
         <v>539</v>
       </c>
-      <c r="H25" t="s">
-        <v>551</v>
-      </c>
-      <c r="K25" t="s">
-        <v>660</v>
-      </c>
-      <c r="L25" t="s">
-        <v>822</v>
-      </c>
-      <c r="M25" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>543</v>
+      </c>
+      <c r="X25" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="C26" t="s">
+        <v>881</v>
+      </c>
+      <c r="D26" t="s">
+        <v>831</v>
+      </c>
+      <c r="E26" t="s">
+        <v>832</v>
+      </c>
+      <c r="F26" t="s">
+        <v>850</v>
+      </c>
+      <c r="G26" t="s">
+        <v>890</v>
+      </c>
+      <c r="L26" t="s">
+        <v>835</v>
+      </c>
+      <c r="M26" t="s">
+        <v>836</v>
+      </c>
+      <c r="N26" t="s">
+        <v>881</v>
+      </c>
+      <c r="O26" t="s">
         <v>837</v>
       </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26">
+      <c r="P26" t="s">
+        <v>838</v>
+      </c>
+      <c r="T26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="U26" t="s">
         <v>539</v>
       </c>
-      <c r="H26" t="s">
-        <v>551</v>
-      </c>
-      <c r="K26" t="s">
-        <v>660</v>
-      </c>
-      <c r="L26" t="s">
-        <v>822</v>
-      </c>
-      <c r="M26" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>543</v>
+      </c>
+      <c r="X26" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
       <c r="C27" t="s">
+        <v>881</v>
+      </c>
+      <c r="D27" t="s">
+        <v>831</v>
+      </c>
+      <c r="E27" t="s">
+        <v>847</v>
+      </c>
+      <c r="F27" t="s">
+        <v>833</v>
+      </c>
+      <c r="G27" t="s">
+        <v>892</v>
+      </c>
+      <c r="L27" t="s">
+        <v>835</v>
+      </c>
+      <c r="M27" t="s">
+        <v>836</v>
+      </c>
+      <c r="N27" t="s">
+        <v>881</v>
+      </c>
+      <c r="O27" t="s">
         <v>837</v>
       </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27">
+      <c r="P27" t="s">
+        <v>838</v>
+      </c>
+      <c r="T27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="U27" t="s">
         <v>539</v>
       </c>
-      <c r="H27" t="s">
-        <v>551</v>
-      </c>
-      <c r="K27" t="s">
-        <v>660</v>
-      </c>
-      <c r="L27" t="s">
-        <v>822</v>
-      </c>
-      <c r="M27" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>543</v>
+      </c>
+      <c r="X27" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="C28" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28">
+        <v>831</v>
+      </c>
+      <c r="E28" t="s">
+        <v>847</v>
+      </c>
+      <c r="F28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G28" t="s">
+        <v>895</v>
+      </c>
+      <c r="L28" t="s">
+        <v>835</v>
+      </c>
+      <c r="M28" t="s">
+        <v>836</v>
+      </c>
+      <c r="N28" t="s">
+        <v>894</v>
+      </c>
+      <c r="O28" t="s">
+        <v>837</v>
+      </c>
+      <c r="P28" t="s">
+        <v>896</v>
+      </c>
+      <c r="T28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
+      <c r="U28" t="s">
         <v>539</v>
       </c>
-      <c r="H28" t="s">
-        <v>551</v>
-      </c>
-      <c r="K28" t="s">
-        <v>660</v>
-      </c>
-      <c r="L28" t="s">
-        <v>822</v>
-      </c>
-      <c r="M28" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>543</v>
+      </c>
+      <c r="X28" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="C29" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29">
+        <v>831</v>
+      </c>
+      <c r="E29" t="s">
+        <v>847</v>
+      </c>
+      <c r="F29" t="s">
+        <v>833</v>
+      </c>
+      <c r="G29" t="s">
+        <v>898</v>
+      </c>
+      <c r="L29" t="s">
+        <v>835</v>
+      </c>
+      <c r="M29" t="s">
+        <v>836</v>
+      </c>
+      <c r="N29" t="s">
+        <v>894</v>
+      </c>
+      <c r="O29" t="s">
+        <v>837</v>
+      </c>
+      <c r="P29" t="s">
+        <v>896</v>
+      </c>
+      <c r="T29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
+      <c r="U29" t="s">
         <v>539</v>
       </c>
-      <c r="H29" t="s">
-        <v>551</v>
-      </c>
-      <c r="K29" t="s">
-        <v>660</v>
-      </c>
-      <c r="L29" t="s">
-        <v>822</v>
-      </c>
-      <c r="M29" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>543</v>
+      </c>
+      <c r="X29" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>858</v>
+        <v>899</v>
       </c>
       <c r="C30" t="s">
+        <v>900</v>
+      </c>
+      <c r="D30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E30" t="s">
+        <v>832</v>
+      </c>
+      <c r="F30" t="s">
+        <v>833</v>
+      </c>
+      <c r="G30" t="s">
+        <v>901</v>
+      </c>
+      <c r="L30" t="s">
+        <v>835</v>
+      </c>
+      <c r="M30" t="s">
+        <v>836</v>
+      </c>
+      <c r="N30" t="s">
+        <v>900</v>
+      </c>
+      <c r="O30" t="s">
         <v>837</v>
       </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30">
+      <c r="P30" t="s">
+        <v>896</v>
+      </c>
+      <c r="T30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="U30" t="s">
         <v>539</v>
       </c>
-      <c r="H30" t="s">
-        <v>551</v>
-      </c>
-      <c r="K30" t="s">
-        <v>660</v>
-      </c>
-      <c r="L30" t="s">
-        <v>822</v>
-      </c>
-      <c r="M30" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>543</v>
+      </c>
+      <c r="X30" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>859</v>
+        <v>902</v>
       </c>
       <c r="C31" t="s">
+        <v>900</v>
+      </c>
+      <c r="D31" t="s">
+        <v>831</v>
+      </c>
+      <c r="E31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F31" t="s">
+        <v>833</v>
+      </c>
+      <c r="G31" t="s">
+        <v>903</v>
+      </c>
+      <c r="L31" t="s">
+        <v>835</v>
+      </c>
+      <c r="M31" t="s">
+        <v>836</v>
+      </c>
+      <c r="N31" t="s">
+        <v>900</v>
+      </c>
+      <c r="O31" t="s">
         <v>837</v>
       </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31">
+      <c r="P31" t="s">
+        <v>896</v>
+      </c>
+      <c r="T31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
+      <c r="U31" t="s">
         <v>539</v>
       </c>
-      <c r="H31" t="s">
-        <v>551</v>
-      </c>
-      <c r="K31" t="s">
-        <v>660</v>
-      </c>
-      <c r="L31" t="s">
-        <v>822</v>
-      </c>
-      <c r="M31" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>543</v>
+      </c>
+      <c r="X31" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="C32" t="s">
+        <v>900</v>
+      </c>
+      <c r="D32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E32" t="s">
+        <v>847</v>
+      </c>
+      <c r="F32" t="s">
+        <v>833</v>
+      </c>
+      <c r="G32" t="s">
+        <v>905</v>
+      </c>
+      <c r="L32" t="s">
+        <v>835</v>
+      </c>
+      <c r="M32" t="s">
+        <v>836</v>
+      </c>
+      <c r="N32" t="s">
+        <v>900</v>
+      </c>
+      <c r="O32" t="s">
         <v>837</v>
       </c>
-      <c r="D32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32">
+      <c r="P32" t="s">
+        <v>896</v>
+      </c>
+      <c r="T32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
+      <c r="U32" t="s">
         <v>539</v>
       </c>
-      <c r="H32" t="s">
-        <v>551</v>
-      </c>
-      <c r="K32" t="s">
-        <v>660</v>
-      </c>
-      <c r="L32" t="s">
-        <v>822</v>
-      </c>
-      <c r="M32" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>543</v>
+      </c>
+      <c r="X32" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="C33" t="s">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33">
+        <v>831</v>
+      </c>
+      <c r="E33" t="s">
+        <v>832</v>
+      </c>
+      <c r="F33" t="s">
+        <v>850</v>
+      </c>
+      <c r="G33" t="s">
+        <v>907</v>
+      </c>
+      <c r="L33" t="s">
+        <v>835</v>
+      </c>
+      <c r="M33" t="s">
+        <v>836</v>
+      </c>
+      <c r="N33" t="s">
+        <v>900</v>
+      </c>
+      <c r="O33" t="s">
+        <v>837</v>
+      </c>
+      <c r="P33" t="s">
+        <v>896</v>
+      </c>
+      <c r="T33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
+      <c r="U33" t="s">
         <v>539</v>
       </c>
-      <c r="H33" t="s">
-        <v>551</v>
-      </c>
-      <c r="K33" t="s">
-        <v>660</v>
-      </c>
-      <c r="L33" t="s">
-        <v>822</v>
-      </c>
-      <c r="M33" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>543</v>
+      </c>
+      <c r="X33" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
       <c r="C34" t="s">
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34">
+        <v>831</v>
+      </c>
+      <c r="E34" t="s">
+        <v>847</v>
+      </c>
+      <c r="F34" t="s">
+        <v>833</v>
+      </c>
+      <c r="G34" t="s">
+        <v>909</v>
+      </c>
+      <c r="L34" t="s">
+        <v>835</v>
+      </c>
+      <c r="M34" t="s">
+        <v>836</v>
+      </c>
+      <c r="N34" t="s">
+        <v>900</v>
+      </c>
+      <c r="O34" t="s">
+        <v>837</v>
+      </c>
+      <c r="P34" t="s">
+        <v>896</v>
+      </c>
+      <c r="T34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
+      <c r="U34" t="s">
         <v>539</v>
       </c>
-      <c r="H34" t="s">
-        <v>551</v>
-      </c>
-      <c r="K34" t="s">
-        <v>660</v>
-      </c>
-      <c r="L34" t="s">
-        <v>822</v>
-      </c>
-      <c r="M34" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>31</v>
-      </c>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>543</v>
+      </c>
+      <c r="X34" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>863</v>
+        <v>910</v>
       </c>
       <c r="C35" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35">
+        <v>831</v>
+      </c>
+      <c r="E35" t="s">
+        <v>911</v>
+      </c>
+      <c r="F35" t="s">
+        <v>833</v>
+      </c>
+      <c r="G35" t="s">
+        <v>912</v>
+      </c>
+      <c r="L35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M35" t="s">
+        <v>836</v>
+      </c>
+      <c r="N35" t="s">
+        <v>894</v>
+      </c>
+      <c r="O35" t="s">
+        <v>837</v>
+      </c>
+      <c r="P35" t="s">
+        <v>896</v>
+      </c>
+      <c r="T35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="U35" t="s">
         <v>539</v>
       </c>
-      <c r="H35" t="s">
-        <v>551</v>
-      </c>
-      <c r="K35" t="s">
-        <v>660</v>
-      </c>
-      <c r="L35" t="s">
-        <v>822</v>
-      </c>
-      <c r="M35" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>543</v>
+      </c>
+      <c r="X35" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>864</v>
+        <v>913</v>
       </c>
       <c r="C36" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36">
+        <v>831</v>
+      </c>
+      <c r="E36" t="s">
+        <v>914</v>
+      </c>
+      <c r="F36" t="s">
+        <v>833</v>
+      </c>
+      <c r="G36" t="s">
+        <v>915</v>
+      </c>
+      <c r="L36" t="s">
+        <v>835</v>
+      </c>
+      <c r="M36" t="s">
+        <v>836</v>
+      </c>
+      <c r="N36" t="s">
+        <v>894</v>
+      </c>
+      <c r="O36" t="s">
+        <v>837</v>
+      </c>
+      <c r="P36" t="s">
+        <v>896</v>
+      </c>
+      <c r="T36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="U36" t="s">
         <v>539</v>
       </c>
-      <c r="H36" t="s">
-        <v>551</v>
-      </c>
-      <c r="K36" t="s">
-        <v>660</v>
-      </c>
-      <c r="L36" t="s">
-        <v>822</v>
-      </c>
-      <c r="M36" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>31</v>
-      </c>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>543</v>
+      </c>
+      <c r="X36" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>865</v>
+        <v>916</v>
       </c>
       <c r="C37" t="s">
+        <v>894</v>
+      </c>
+      <c r="D37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E37" t="s">
+        <v>917</v>
+      </c>
+      <c r="F37" t="s">
+        <v>833</v>
+      </c>
+      <c r="G37" t="s">
+        <v>918</v>
+      </c>
+      <c r="L37" t="s">
+        <v>835</v>
+      </c>
+      <c r="M37" t="s">
+        <v>836</v>
+      </c>
+      <c r="N37" t="s">
+        <v>894</v>
+      </c>
+      <c r="O37" t="s">
         <v>837</v>
       </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37">
+      <c r="P37" t="s">
+        <v>896</v>
+      </c>
+      <c r="T37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="U37" t="s">
         <v>539</v>
       </c>
-      <c r="H37" t="s">
-        <v>551</v>
-      </c>
-      <c r="K37" t="s">
-        <v>660</v>
-      </c>
-      <c r="L37" t="s">
-        <v>822</v>
-      </c>
-      <c r="M37" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>31</v>
-      </c>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>543</v>
+      </c>
+      <c r="X37" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>866</v>
+        <v>919</v>
       </c>
       <c r="C38" t="s">
+        <v>894</v>
+      </c>
+      <c r="D38" t="s">
+        <v>831</v>
+      </c>
+      <c r="E38" t="s">
+        <v>920</v>
+      </c>
+      <c r="F38" t="s">
+        <v>850</v>
+      </c>
+      <c r="G38" t="s">
+        <v>921</v>
+      </c>
+      <c r="L38" t="s">
+        <v>835</v>
+      </c>
+      <c r="M38" t="s">
+        <v>836</v>
+      </c>
+      <c r="N38" t="s">
+        <v>894</v>
+      </c>
+      <c r="O38" t="s">
         <v>837</v>
       </c>
-      <c r="D38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38">
+      <c r="P38" t="s">
+        <v>896</v>
+      </c>
+      <c r="T38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
+      <c r="U38" t="s">
         <v>539</v>
       </c>
-      <c r="H38" t="s">
-        <v>551</v>
-      </c>
-      <c r="K38" t="s">
-        <v>660</v>
-      </c>
-      <c r="L38" t="s">
-        <v>822</v>
-      </c>
-      <c r="M38" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>31</v>
-      </c>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>543</v>
+      </c>
+      <c r="X38" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>867</v>
+        <v>922</v>
       </c>
       <c r="C39" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39">
+        <v>831</v>
+      </c>
+      <c r="E39" t="s">
+        <v>923</v>
+      </c>
+      <c r="F39" t="s">
+        <v>833</v>
+      </c>
+      <c r="G39" t="s">
+        <v>924</v>
+      </c>
+      <c r="L39" t="s">
+        <v>835</v>
+      </c>
+      <c r="M39" t="s">
+        <v>836</v>
+      </c>
+      <c r="N39" t="s">
+        <v>894</v>
+      </c>
+      <c r="O39" t="s">
+        <v>837</v>
+      </c>
+      <c r="P39" t="s">
+        <v>896</v>
+      </c>
+      <c r="T39">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
+      <c r="U39" t="s">
         <v>539</v>
       </c>
-      <c r="H39" t="s">
-        <v>551</v>
-      </c>
-      <c r="K39" t="s">
-        <v>660</v>
-      </c>
-      <c r="L39" t="s">
-        <v>822</v>
-      </c>
-      <c r="M39" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>31</v>
-      </c>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V39" t="s">
+        <v>543</v>
+      </c>
+      <c r="X39" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>868</v>
+        <v>925</v>
       </c>
       <c r="C40" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40">
+        <v>831</v>
+      </c>
+      <c r="E40" t="s">
+        <v>926</v>
+      </c>
+      <c r="F40" t="s">
+        <v>833</v>
+      </c>
+      <c r="G40" t="s">
+        <v>927</v>
+      </c>
+      <c r="L40" t="s">
+        <v>835</v>
+      </c>
+      <c r="M40" t="s">
+        <v>836</v>
+      </c>
+      <c r="N40" t="s">
+        <v>894</v>
+      </c>
+      <c r="O40" t="s">
+        <v>837</v>
+      </c>
+      <c r="P40" t="s">
+        <v>896</v>
+      </c>
+      <c r="T40">
         <v>0</v>
       </c>
-      <c r="G40" t="s">
+      <c r="U40" t="s">
         <v>539</v>
       </c>
-      <c r="H40" t="s">
-        <v>551</v>
-      </c>
-      <c r="K40" t="s">
-        <v>660</v>
-      </c>
-      <c r="L40" t="s">
-        <v>822</v>
-      </c>
-      <c r="M40" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>31</v>
-      </c>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V40" t="s">
+        <v>543</v>
+      </c>
+      <c r="X40" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>869</v>
+        <v>928</v>
       </c>
       <c r="C41" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41">
+        <v>831</v>
+      </c>
+      <c r="E41" t="s">
+        <v>929</v>
+      </c>
+      <c r="F41" t="s">
+        <v>833</v>
+      </c>
+      <c r="G41" t="s">
+        <v>930</v>
+      </c>
+      <c r="L41" t="s">
+        <v>835</v>
+      </c>
+      <c r="M41" t="s">
+        <v>836</v>
+      </c>
+      <c r="N41" t="s">
+        <v>894</v>
+      </c>
+      <c r="O41" t="s">
+        <v>837</v>
+      </c>
+      <c r="P41" t="s">
+        <v>896</v>
+      </c>
+      <c r="T41">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
+      <c r="U41" t="s">
         <v>539</v>
       </c>
-      <c r="H41" t="s">
-        <v>551</v>
-      </c>
-      <c r="K41" t="s">
-        <v>660</v>
-      </c>
-      <c r="L41" t="s">
-        <v>822</v>
-      </c>
-      <c r="M41" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>31</v>
-      </c>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V41" t="s">
+        <v>543</v>
+      </c>
+      <c r="X41" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>870</v>
+        <v>931</v>
       </c>
       <c r="C42" t="s">
+        <v>894</v>
+      </c>
+      <c r="D42" t="s">
+        <v>831</v>
+      </c>
+      <c r="E42" t="s">
+        <v>932</v>
+      </c>
+      <c r="F42" t="s">
+        <v>833</v>
+      </c>
+      <c r="G42" t="s">
+        <v>933</v>
+      </c>
+      <c r="L42" t="s">
+        <v>835</v>
+      </c>
+      <c r="M42" t="s">
+        <v>836</v>
+      </c>
+      <c r="N42" t="s">
+        <v>894</v>
+      </c>
+      <c r="O42" t="s">
         <v>837</v>
       </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42">
+      <c r="P42" t="s">
+        <v>896</v>
+      </c>
+      <c r="T42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
+      <c r="U42" t="s">
         <v>539</v>
       </c>
-      <c r="H42" t="s">
-        <v>551</v>
-      </c>
-      <c r="K42" t="s">
-        <v>660</v>
-      </c>
-      <c r="L42" t="s">
-        <v>822</v>
-      </c>
-      <c r="M42" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>31</v>
-      </c>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>543</v>
+      </c>
+      <c r="X42" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
       <c r="C43" t="s">
+        <v>894</v>
+      </c>
+      <c r="D43" t="s">
+        <v>831</v>
+      </c>
+      <c r="E43" t="s">
+        <v>935</v>
+      </c>
+      <c r="F43" t="s">
+        <v>833</v>
+      </c>
+      <c r="G43" t="s">
+        <v>936</v>
+      </c>
+      <c r="L43" t="s">
+        <v>835</v>
+      </c>
+      <c r="M43" t="s">
+        <v>836</v>
+      </c>
+      <c r="N43" t="s">
+        <v>894</v>
+      </c>
+      <c r="O43" t="s">
         <v>837</v>
       </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43">
+      <c r="P43" t="s">
+        <v>896</v>
+      </c>
+      <c r="T43">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
+      <c r="U43" t="s">
         <v>539</v>
       </c>
-      <c r="H43" t="s">
-        <v>551</v>
-      </c>
-      <c r="K43" t="s">
-        <v>660</v>
-      </c>
-      <c r="L43" t="s">
-        <v>822</v>
-      </c>
-      <c r="M43" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>31</v>
-      </c>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>543</v>
+      </c>
+      <c r="X43" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>872</v>
+        <v>937</v>
       </c>
       <c r="C44" t="s">
+        <v>894</v>
+      </c>
+      <c r="D44" t="s">
+        <v>831</v>
+      </c>
+      <c r="E44" t="s">
+        <v>938</v>
+      </c>
+      <c r="F44" t="s">
+        <v>833</v>
+      </c>
+      <c r="G44" t="s">
+        <v>939</v>
+      </c>
+      <c r="L44" t="s">
+        <v>835</v>
+      </c>
+      <c r="M44" t="s">
+        <v>836</v>
+      </c>
+      <c r="N44" t="s">
+        <v>894</v>
+      </c>
+      <c r="O44" t="s">
         <v>837</v>
       </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44">
+      <c r="P44" t="s">
+        <v>896</v>
+      </c>
+      <c r="T44">
         <v>0</v>
       </c>
-      <c r="G44" t="s">
+      <c r="U44" t="s">
         <v>539</v>
       </c>
-      <c r="H44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K44" t="s">
-        <v>660</v>
-      </c>
-      <c r="L44" t="s">
-        <v>822</v>
-      </c>
-      <c r="M44" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>31</v>
-      </c>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V44" t="s">
+        <v>543</v>
+      </c>
+      <c r="X44" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>873</v>
+        <v>940</v>
       </c>
       <c r="C45" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45">
+        <v>831</v>
+      </c>
+      <c r="E45" t="s">
+        <v>941</v>
+      </c>
+      <c r="F45" t="s">
+        <v>833</v>
+      </c>
+      <c r="G45" t="s">
+        <v>942</v>
+      </c>
+      <c r="L45" t="s">
+        <v>835</v>
+      </c>
+      <c r="M45" t="s">
+        <v>836</v>
+      </c>
+      <c r="N45" t="s">
+        <v>894</v>
+      </c>
+      <c r="O45" t="s">
+        <v>837</v>
+      </c>
+      <c r="P45" t="s">
+        <v>896</v>
+      </c>
+      <c r="T45">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
+      <c r="U45" t="s">
         <v>539</v>
       </c>
-      <c r="H45" t="s">
-        <v>551</v>
-      </c>
-      <c r="K45" t="s">
-        <v>660</v>
-      </c>
-      <c r="L45" t="s">
-        <v>822</v>
-      </c>
-      <c r="M45" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>31</v>
-      </c>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V45" t="s">
+        <v>543</v>
+      </c>
+      <c r="X45" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="C46" t="s">
+        <v>894</v>
+      </c>
+      <c r="D46" t="s">
+        <v>831</v>
+      </c>
+      <c r="E46" t="s">
+        <v>944</v>
+      </c>
+      <c r="F46" t="s">
+        <v>833</v>
+      </c>
+      <c r="G46" t="s">
+        <v>945</v>
+      </c>
+      <c r="L46" t="s">
+        <v>835</v>
+      </c>
+      <c r="M46" t="s">
+        <v>836</v>
+      </c>
+      <c r="N46" t="s">
+        <v>894</v>
+      </c>
+      <c r="O46" t="s">
         <v>837</v>
       </c>
-      <c r="D46" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46">
+      <c r="P46" t="s">
+        <v>896</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
-      <c r="G46" t="s">
+      <c r="U46" t="s">
         <v>539</v>
       </c>
-      <c r="H46" t="s">
-        <v>551</v>
-      </c>
-      <c r="K46" t="s">
-        <v>660</v>
-      </c>
-      <c r="L46" t="s">
-        <v>822</v>
-      </c>
-      <c r="M46" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>31</v>
-      </c>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>543</v>
+      </c>
+      <c r="X46" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="C47" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47">
+        <v>831</v>
+      </c>
+      <c r="E47" t="s">
+        <v>947</v>
+      </c>
+      <c r="F47" t="s">
+        <v>833</v>
+      </c>
+      <c r="G47" t="s">
+        <v>948</v>
+      </c>
+      <c r="L47" t="s">
+        <v>835</v>
+      </c>
+      <c r="M47" t="s">
+        <v>836</v>
+      </c>
+      <c r="N47" t="s">
+        <v>894</v>
+      </c>
+      <c r="O47" t="s">
+        <v>837</v>
+      </c>
+      <c r="P47" t="s">
+        <v>896</v>
+      </c>
+      <c r="T47">
         <v>0</v>
       </c>
-      <c r="G47" t="s">
+      <c r="U47" t="s">
         <v>539</v>
       </c>
-      <c r="H47" t="s">
-        <v>551</v>
-      </c>
-      <c r="K47" t="s">
-        <v>660</v>
-      </c>
-      <c r="L47" t="s">
-        <v>822</v>
-      </c>
-      <c r="M47" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>31</v>
-      </c>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V47" t="s">
+        <v>543</v>
+      </c>
+      <c r="X47" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>876</v>
+        <v>949</v>
       </c>
       <c r="C48" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48">
+        <v>831</v>
+      </c>
+      <c r="E48" t="s">
+        <v>950</v>
+      </c>
+      <c r="F48" t="s">
+        <v>833</v>
+      </c>
+      <c r="G48" t="s">
+        <v>951</v>
+      </c>
+      <c r="L48" t="s">
+        <v>835</v>
+      </c>
+      <c r="M48" t="s">
+        <v>836</v>
+      </c>
+      <c r="N48" t="s">
+        <v>894</v>
+      </c>
+      <c r="O48" t="s">
+        <v>837</v>
+      </c>
+      <c r="P48" t="s">
+        <v>896</v>
+      </c>
+      <c r="T48">
         <v>0</v>
       </c>
-      <c r="G48" t="s">
+      <c r="U48" t="s">
         <v>539</v>
       </c>
-      <c r="H48" t="s">
-        <v>551</v>
-      </c>
-      <c r="K48" t="s">
-        <v>660</v>
-      </c>
-      <c r="L48" t="s">
-        <v>822</v>
-      </c>
-      <c r="M48" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>31</v>
-      </c>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>543</v>
+      </c>
+      <c r="X48" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>877</v>
+        <v>952</v>
       </c>
       <c r="C49" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49">
+        <v>831</v>
+      </c>
+      <c r="E49" t="s">
+        <v>953</v>
+      </c>
+      <c r="F49" t="s">
+        <v>833</v>
+      </c>
+      <c r="G49" t="s">
+        <v>954</v>
+      </c>
+      <c r="L49" t="s">
+        <v>835</v>
+      </c>
+      <c r="M49" t="s">
+        <v>836</v>
+      </c>
+      <c r="N49" t="s">
+        <v>894</v>
+      </c>
+      <c r="O49" t="s">
+        <v>837</v>
+      </c>
+      <c r="P49" t="s">
+        <v>896</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="U49" t="s">
         <v>539</v>
       </c>
-      <c r="H49" t="s">
-        <v>551</v>
-      </c>
-      <c r="K49" t="s">
-        <v>660</v>
-      </c>
-      <c r="L49" t="s">
-        <v>822</v>
-      </c>
-      <c r="M49" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>31</v>
-      </c>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>543</v>
+      </c>
+      <c r="X49" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>878</v>
+        <v>955</v>
       </c>
       <c r="C50" t="s">
+        <v>894</v>
+      </c>
+      <c r="D50" t="s">
+        <v>831</v>
+      </c>
+      <c r="E50" t="s">
+        <v>956</v>
+      </c>
+      <c r="F50" t="s">
+        <v>833</v>
+      </c>
+      <c r="G50" t="s">
+        <v>957</v>
+      </c>
+      <c r="L50" t="s">
+        <v>835</v>
+      </c>
+      <c r="M50" t="s">
+        <v>836</v>
+      </c>
+      <c r="N50" t="s">
+        <v>894</v>
+      </c>
+      <c r="O50" t="s">
         <v>837</v>
       </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50">
+      <c r="P50" t="s">
+        <v>896</v>
+      </c>
+      <c r="T50">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
+      <c r="U50" t="s">
         <v>539</v>
       </c>
-      <c r="H50" t="s">
-        <v>551</v>
-      </c>
-      <c r="K50" t="s">
-        <v>660</v>
-      </c>
-      <c r="L50" t="s">
-        <v>822</v>
-      </c>
-      <c r="M50" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>31</v>
-      </c>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>543</v>
+      </c>
+      <c r="X50" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>879</v>
+        <v>958</v>
       </c>
       <c r="C51" t="s">
+        <v>894</v>
+      </c>
+      <c r="D51" t="s">
+        <v>831</v>
+      </c>
+      <c r="E51" t="s">
+        <v>959</v>
+      </c>
+      <c r="F51" t="s">
+        <v>833</v>
+      </c>
+      <c r="G51" t="s">
+        <v>960</v>
+      </c>
+      <c r="L51" t="s">
+        <v>835</v>
+      </c>
+      <c r="M51" t="s">
+        <v>836</v>
+      </c>
+      <c r="N51" t="s">
+        <v>894</v>
+      </c>
+      <c r="O51" t="s">
         <v>837</v>
       </c>
-      <c r="D51" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51">
+      <c r="P51" t="s">
+        <v>896</v>
+      </c>
+      <c r="T51">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="U51" t="s">
         <v>539</v>
       </c>
-      <c r="H51" t="s">
-        <v>551</v>
-      </c>
-      <c r="K51" t="s">
-        <v>660</v>
-      </c>
-      <c r="L51" t="s">
-        <v>822</v>
-      </c>
-      <c r="M51" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>31</v>
-      </c>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V51" t="s">
+        <v>543</v>
+      </c>
+      <c r="X51" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>880</v>
+        <v>961</v>
       </c>
       <c r="C52" t="s">
+        <v>894</v>
+      </c>
+      <c r="D52" t="s">
+        <v>831</v>
+      </c>
+      <c r="E52" t="s">
+        <v>962</v>
+      </c>
+      <c r="F52" t="s">
+        <v>833</v>
+      </c>
+      <c r="G52" t="s">
+        <v>963</v>
+      </c>
+      <c r="L52" t="s">
+        <v>835</v>
+      </c>
+      <c r="M52" t="s">
+        <v>836</v>
+      </c>
+      <c r="N52" t="s">
+        <v>894</v>
+      </c>
+      <c r="O52" t="s">
         <v>837</v>
       </c>
-      <c r="D52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52">
+      <c r="P52" t="s">
+        <v>896</v>
+      </c>
+      <c r="T52">
         <v>0</v>
       </c>
-      <c r="G52" t="s">
+      <c r="U52" t="s">
         <v>539</v>
       </c>
-      <c r="H52" t="s">
-        <v>551</v>
-      </c>
-      <c r="K52" t="s">
-        <v>660</v>
-      </c>
-      <c r="L52" t="s">
-        <v>822</v>
-      </c>
-      <c r="M52" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>31</v>
-      </c>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
+        <v>543</v>
+      </c>
+      <c r="X52" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>881</v>
+        <v>964</v>
       </c>
       <c r="C53" t="s">
+        <v>894</v>
+      </c>
+      <c r="D53" t="s">
+        <v>831</v>
+      </c>
+      <c r="E53" t="s">
+        <v>965</v>
+      </c>
+      <c r="F53" t="s">
+        <v>833</v>
+      </c>
+      <c r="G53" t="s">
+        <v>966</v>
+      </c>
+      <c r="L53" t="s">
+        <v>835</v>
+      </c>
+      <c r="M53" t="s">
+        <v>836</v>
+      </c>
+      <c r="N53" t="s">
+        <v>894</v>
+      </c>
+      <c r="O53" t="s">
         <v>837</v>
       </c>
-      <c r="D53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53">
+      <c r="P53" t="s">
+        <v>896</v>
+      </c>
+      <c r="T53">
         <v>0</v>
       </c>
-      <c r="G53" t="s">
+      <c r="U53" t="s">
         <v>539</v>
       </c>
-      <c r="H53" t="s">
-        <v>551</v>
-      </c>
-      <c r="K53" t="s">
-        <v>660</v>
-      </c>
-      <c r="L53" t="s">
-        <v>822</v>
-      </c>
-      <c r="M53" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>31</v>
-      </c>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>543</v>
+      </c>
+      <c r="X53" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>882</v>
+        <v>967</v>
       </c>
       <c r="C54" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54">
+        <v>831</v>
+      </c>
+      <c r="E54" t="s">
+        <v>968</v>
+      </c>
+      <c r="F54" t="s">
+        <v>850</v>
+      </c>
+      <c r="G54" t="s">
+        <v>969</v>
+      </c>
+      <c r="L54" t="s">
+        <v>835</v>
+      </c>
+      <c r="M54" t="s">
+        <v>836</v>
+      </c>
+      <c r="N54" t="s">
+        <v>894</v>
+      </c>
+      <c r="O54" t="s">
+        <v>837</v>
+      </c>
+      <c r="P54" t="s">
+        <v>896</v>
+      </c>
+      <c r="T54">
         <v>0</v>
       </c>
-      <c r="G54" t="s">
+      <c r="U54" t="s">
         <v>539</v>
       </c>
-      <c r="H54" t="s">
-        <v>551</v>
-      </c>
-      <c r="K54" t="s">
-        <v>660</v>
-      </c>
-      <c r="L54" t="s">
-        <v>822</v>
-      </c>
-      <c r="M54" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>31</v>
-      </c>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>543</v>
+      </c>
+      <c r="X54" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>883</v>
+        <v>970</v>
       </c>
       <c r="C55" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55">
+        <v>831</v>
+      </c>
+      <c r="E55" t="s">
+        <v>971</v>
+      </c>
+      <c r="F55" t="s">
+        <v>833</v>
+      </c>
+      <c r="G55" t="s">
+        <v>972</v>
+      </c>
+      <c r="L55" t="s">
+        <v>835</v>
+      </c>
+      <c r="M55" t="s">
+        <v>836</v>
+      </c>
+      <c r="N55" t="s">
+        <v>894</v>
+      </c>
+      <c r="O55" t="s">
+        <v>837</v>
+      </c>
+      <c r="P55" t="s">
+        <v>896</v>
+      </c>
+      <c r="T55">
         <v>0</v>
       </c>
-      <c r="G55" t="s">
+      <c r="U55" t="s">
         <v>539</v>
       </c>
-      <c r="H55" t="s">
-        <v>551</v>
-      </c>
-      <c r="K55" t="s">
-        <v>660</v>
-      </c>
-      <c r="L55" t="s">
-        <v>822</v>
-      </c>
-      <c r="M55" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V55" t="s">
+        <v>543</v>
+      </c>
+      <c r="X55" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>884</v>
+        <v>973</v>
       </c>
       <c r="C56" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56">
+        <v>831</v>
+      </c>
+      <c r="E56" t="s">
+        <v>974</v>
+      </c>
+      <c r="F56" t="s">
+        <v>833</v>
+      </c>
+      <c r="G56" t="s">
+        <v>975</v>
+      </c>
+      <c r="L56" t="s">
+        <v>835</v>
+      </c>
+      <c r="M56" t="s">
+        <v>836</v>
+      </c>
+      <c r="N56" t="s">
+        <v>894</v>
+      </c>
+      <c r="O56" t="s">
+        <v>837</v>
+      </c>
+      <c r="P56" t="s">
+        <v>896</v>
+      </c>
+      <c r="T56">
         <v>0</v>
       </c>
-      <c r="G56" t="s">
+      <c r="U56" t="s">
         <v>539</v>
       </c>
-      <c r="H56" t="s">
-        <v>551</v>
-      </c>
-      <c r="K56" t="s">
-        <v>660</v>
-      </c>
-      <c r="L56" t="s">
-        <v>822</v>
-      </c>
-      <c r="M56" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>31</v>
-      </c>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V56" t="s">
+        <v>543</v>
+      </c>
+      <c r="X56" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>885</v>
+        <v>976</v>
       </c>
       <c r="C57" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57">
+        <v>831</v>
+      </c>
+      <c r="E57" t="s">
+        <v>977</v>
+      </c>
+      <c r="F57" t="s">
+        <v>833</v>
+      </c>
+      <c r="G57" t="s">
+        <v>978</v>
+      </c>
+      <c r="L57" t="s">
+        <v>835</v>
+      </c>
+      <c r="M57" t="s">
+        <v>836</v>
+      </c>
+      <c r="N57" t="s">
+        <v>894</v>
+      </c>
+      <c r="O57" t="s">
+        <v>837</v>
+      </c>
+      <c r="P57" t="s">
+        <v>896</v>
+      </c>
+      <c r="T57">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
+      <c r="U57" t="s">
         <v>539</v>
       </c>
-      <c r="H57" t="s">
-        <v>551</v>
-      </c>
-      <c r="K57" t="s">
-        <v>660</v>
-      </c>
-      <c r="L57" t="s">
-        <v>822</v>
-      </c>
-      <c r="M57" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>31</v>
-      </c>
-      <c r="V57" s="1"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V57" t="s">
+        <v>543</v>
+      </c>
+      <c r="X57" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>886</v>
+        <v>979</v>
       </c>
       <c r="C58" t="s">
+        <v>894</v>
+      </c>
+      <c r="D58" t="s">
+        <v>831</v>
+      </c>
+      <c r="E58" t="s">
+        <v>980</v>
+      </c>
+      <c r="F58" t="s">
+        <v>833</v>
+      </c>
+      <c r="G58" t="s">
+        <v>981</v>
+      </c>
+      <c r="L58" t="s">
+        <v>835</v>
+      </c>
+      <c r="M58" t="s">
+        <v>836</v>
+      </c>
+      <c r="N58" t="s">
+        <v>894</v>
+      </c>
+      <c r="O58" t="s">
         <v>837</v>
       </c>
-      <c r="D58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58">
+      <c r="P58" t="s">
+        <v>896</v>
+      </c>
+      <c r="T58">
         <v>0</v>
       </c>
-      <c r="G58" t="s">
+      <c r="U58" t="s">
         <v>539</v>
       </c>
-      <c r="H58" t="s">
-        <v>551</v>
-      </c>
-      <c r="K58" t="s">
-        <v>660</v>
-      </c>
-      <c r="L58" t="s">
-        <v>822</v>
-      </c>
-      <c r="M58" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>31</v>
-      </c>
-      <c r="V58" s="1"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>543</v>
+      </c>
+      <c r="X58" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>887</v>
+        <v>982</v>
       </c>
       <c r="C59" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59">
+        <v>831</v>
+      </c>
+      <c r="E59" t="s">
+        <v>983</v>
+      </c>
+      <c r="F59" t="s">
+        <v>833</v>
+      </c>
+      <c r="G59" t="s">
+        <v>984</v>
+      </c>
+      <c r="L59" t="s">
+        <v>835</v>
+      </c>
+      <c r="M59" t="s">
+        <v>836</v>
+      </c>
+      <c r="N59" t="s">
+        <v>894</v>
+      </c>
+      <c r="O59" t="s">
+        <v>837</v>
+      </c>
+      <c r="P59" t="s">
+        <v>896</v>
+      </c>
+      <c r="T59">
         <v>0</v>
       </c>
-      <c r="G59" t="s">
+      <c r="U59" t="s">
         <v>539</v>
       </c>
-      <c r="H59" t="s">
-        <v>551</v>
-      </c>
-      <c r="K59" t="s">
-        <v>660</v>
-      </c>
-      <c r="L59" t="s">
-        <v>822</v>
-      </c>
-      <c r="M59" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>31</v>
-      </c>
-      <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V59" t="s">
+        <v>543</v>
+      </c>
+      <c r="X59" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>888</v>
+        <v>985</v>
       </c>
       <c r="C60" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60">
+        <v>831</v>
+      </c>
+      <c r="E60" t="s">
+        <v>986</v>
+      </c>
+      <c r="F60" t="s">
+        <v>850</v>
+      </c>
+      <c r="G60" t="s">
+        <v>987</v>
+      </c>
+      <c r="L60" t="s">
+        <v>835</v>
+      </c>
+      <c r="M60" t="s">
+        <v>836</v>
+      </c>
+      <c r="N60" t="s">
+        <v>894</v>
+      </c>
+      <c r="O60" t="s">
+        <v>837</v>
+      </c>
+      <c r="P60" t="s">
+        <v>896</v>
+      </c>
+      <c r="T60">
         <v>0</v>
       </c>
-      <c r="G60" t="s">
+      <c r="U60" t="s">
         <v>539</v>
       </c>
-      <c r="H60" t="s">
-        <v>551</v>
-      </c>
-      <c r="K60" t="s">
-        <v>660</v>
-      </c>
-      <c r="L60" t="s">
-        <v>822</v>
-      </c>
-      <c r="M60" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>31</v>
-      </c>
-      <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V60" t="s">
+        <v>543</v>
+      </c>
+      <c r="X60" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="C61" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61">
+        <v>831</v>
+      </c>
+      <c r="E61" t="s">
+        <v>989</v>
+      </c>
+      <c r="F61" t="s">
+        <v>833</v>
+      </c>
+      <c r="G61" t="s">
+        <v>990</v>
+      </c>
+      <c r="L61" t="s">
+        <v>835</v>
+      </c>
+      <c r="M61" t="s">
+        <v>836</v>
+      </c>
+      <c r="N61" t="s">
+        <v>894</v>
+      </c>
+      <c r="O61" t="s">
+        <v>837</v>
+      </c>
+      <c r="P61" t="s">
+        <v>896</v>
+      </c>
+      <c r="T61">
         <v>0</v>
       </c>
-      <c r="G61" t="s">
+      <c r="U61" t="s">
         <v>539</v>
       </c>
-      <c r="H61" t="s">
-        <v>551</v>
-      </c>
-      <c r="K61" t="s">
-        <v>660</v>
-      </c>
-      <c r="L61" t="s">
-        <v>822</v>
-      </c>
-      <c r="M61" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>31</v>
-      </c>
-      <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V61" t="s">
+        <v>543</v>
+      </c>
+      <c r="X61" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>890</v>
+        <v>991</v>
       </c>
       <c r="C62" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62">
+        <v>831</v>
+      </c>
+      <c r="E62" t="s">
+        <v>992</v>
+      </c>
+      <c r="F62" t="s">
+        <v>833</v>
+      </c>
+      <c r="G62" t="s">
+        <v>993</v>
+      </c>
+      <c r="L62" t="s">
+        <v>835</v>
+      </c>
+      <c r="M62" t="s">
+        <v>836</v>
+      </c>
+      <c r="N62" t="s">
+        <v>894</v>
+      </c>
+      <c r="O62" t="s">
+        <v>837</v>
+      </c>
+      <c r="P62" t="s">
+        <v>896</v>
+      </c>
+      <c r="T62">
         <v>0</v>
       </c>
-      <c r="G62" t="s">
+      <c r="U62" t="s">
         <v>539</v>
       </c>
-      <c r="H62" t="s">
-        <v>551</v>
-      </c>
-      <c r="K62" t="s">
-        <v>660</v>
-      </c>
-      <c r="L62" t="s">
-        <v>822</v>
-      </c>
-      <c r="M62" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>31</v>
-      </c>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V62" t="s">
+        <v>543</v>
+      </c>
+      <c r="X62" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>891</v>
+        <v>994</v>
       </c>
       <c r="C63" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63">
+        <v>831</v>
+      </c>
+      <c r="E63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F63" t="s">
+        <v>850</v>
+      </c>
+      <c r="G63" t="s">
+        <v>996</v>
+      </c>
+      <c r="L63" t="s">
+        <v>835</v>
+      </c>
+      <c r="M63" t="s">
+        <v>836</v>
+      </c>
+      <c r="N63" t="s">
+        <v>894</v>
+      </c>
+      <c r="O63" t="s">
+        <v>837</v>
+      </c>
+      <c r="P63" t="s">
+        <v>896</v>
+      </c>
+      <c r="T63">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
+      <c r="U63" t="s">
         <v>539</v>
       </c>
-      <c r="H63" t="s">
-        <v>551</v>
-      </c>
-      <c r="K63" t="s">
-        <v>660</v>
-      </c>
-      <c r="L63" t="s">
-        <v>822</v>
-      </c>
-      <c r="M63" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>31</v>
-      </c>
-      <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>892</v>
+        <v>997</v>
       </c>
       <c r="C64" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64">
+        <v>831</v>
+      </c>
+      <c r="E64" t="s">
+        <v>998</v>
+      </c>
+      <c r="F64" t="s">
+        <v>833</v>
+      </c>
+      <c r="G64" t="s">
+        <v>999</v>
+      </c>
+      <c r="L64" t="s">
+        <v>835</v>
+      </c>
+      <c r="M64" t="s">
+        <v>836</v>
+      </c>
+      <c r="N64" t="s">
+        <v>894</v>
+      </c>
+      <c r="O64" t="s">
+        <v>837</v>
+      </c>
+      <c r="P64" t="s">
+        <v>896</v>
+      </c>
+      <c r="T64">
         <v>0</v>
       </c>
-      <c r="G64" t="s">
+      <c r="U64" t="s">
         <v>539</v>
       </c>
-      <c r="H64" t="s">
-        <v>551</v>
-      </c>
-      <c r="K64" t="s">
-        <v>660</v>
-      </c>
-      <c r="L64" t="s">
-        <v>822</v>
-      </c>
-      <c r="M64" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>31</v>
-      </c>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V64" t="s">
+        <v>543</v>
+      </c>
+      <c r="X64" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>893</v>
+        <v>1000</v>
       </c>
       <c r="C65" t="s">
+        <v>894</v>
+      </c>
+      <c r="D65" t="s">
+        <v>831</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F65" t="s">
+        <v>833</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L65" t="s">
+        <v>835</v>
+      </c>
+      <c r="M65" t="s">
+        <v>836</v>
+      </c>
+      <c r="N65" t="s">
+        <v>894</v>
+      </c>
+      <c r="O65" t="s">
         <v>837</v>
       </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65">
+      <c r="P65" t="s">
+        <v>896</v>
+      </c>
+      <c r="T65">
         <v>0</v>
       </c>
-      <c r="G65" t="s">
+      <c r="U65" t="s">
         <v>539</v>
       </c>
-      <c r="H65" t="s">
-        <v>551</v>
-      </c>
-      <c r="K65" t="s">
-        <v>660</v>
-      </c>
-      <c r="L65" t="s">
-        <v>822</v>
-      </c>
-      <c r="M65" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>31</v>
-      </c>
-      <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V65" t="s">
+        <v>543</v>
+      </c>
+      <c r="X65" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C66" t="s">
         <v>894</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>831</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F66" t="s">
+        <v>850</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L66" t="s">
+        <v>835</v>
+      </c>
+      <c r="M66" t="s">
+        <v>836</v>
+      </c>
+      <c r="N66" t="s">
+        <v>894</v>
+      </c>
+      <c r="O66" t="s">
         <v>837</v>
       </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66">
+      <c r="P66" t="s">
+        <v>896</v>
+      </c>
+      <c r="T66">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
+      <c r="U66" t="s">
         <v>539</v>
       </c>
-      <c r="H66" t="s">
-        <v>551</v>
-      </c>
-      <c r="K66" t="s">
-        <v>660</v>
-      </c>
-      <c r="L66" t="s">
-        <v>822</v>
-      </c>
-      <c r="M66" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>31</v>
-      </c>
-      <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V66" t="s">
+        <v>543</v>
+      </c>
+      <c r="X66" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" t="s">
-        <v>895</v>
-      </c>
-      <c r="C67" t="s">
-        <v>830</v>
-      </c>
-      <c r="D67" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>539</v>
-      </c>
-      <c r="H67" t="s">
-        <v>551</v>
-      </c>
-      <c r="K67" t="s">
-        <v>660</v>
-      </c>
-      <c r="L67" t="s">
-        <v>822</v>
-      </c>
-      <c r="M67" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>31</v>
-      </c>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" t="s">
-        <v>896</v>
-      </c>
-      <c r="C68" t="s">
-        <v>832</v>
-      </c>
-      <c r="D68" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>539</v>
-      </c>
-      <c r="H68" t="s">
-        <v>551</v>
-      </c>
-      <c r="K68" t="s">
-        <v>660</v>
-      </c>
-      <c r="L68" t="s">
-        <v>822</v>
-      </c>
-      <c r="M68" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>31</v>
-      </c>
       <c r="V68" s="1"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" t="s">
-        <v>897</v>
-      </c>
-      <c r="C69" t="s">
-        <v>830</v>
-      </c>
-      <c r="D69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>539</v>
-      </c>
-      <c r="H69" t="s">
-        <v>551</v>
-      </c>
-      <c r="K69" t="s">
-        <v>660</v>
-      </c>
-      <c r="L69" t="s">
-        <v>822</v>
-      </c>
-      <c r="M69" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>31</v>
-      </c>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" t="s">
-        <v>898</v>
-      </c>
-      <c r="C70" t="s">
-        <v>830</v>
-      </c>
-      <c r="D70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>539</v>
-      </c>
-      <c r="H70" t="s">
-        <v>551</v>
-      </c>
-      <c r="K70" t="s">
-        <v>660</v>
-      </c>
-      <c r="L70" t="s">
-        <v>822</v>
-      </c>
-      <c r="M70" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>31</v>
-      </c>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" t="s">
-        <v>899</v>
-      </c>
-      <c r="C71" t="s">
-        <v>837</v>
-      </c>
-      <c r="D71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>539</v>
-      </c>
-      <c r="H71" t="s">
-        <v>551</v>
-      </c>
-      <c r="K71" t="s">
-        <v>660</v>
-      </c>
-      <c r="L71" t="s">
-        <v>822</v>
-      </c>
-      <c r="M71" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>31</v>
-      </c>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" t="s">
-        <v>900</v>
-      </c>
-      <c r="C72" t="s">
-        <v>837</v>
-      </c>
-      <c r="D72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>539</v>
-      </c>
-      <c r="H72" t="s">
-        <v>551</v>
-      </c>
-      <c r="K72" t="s">
-        <v>660</v>
-      </c>
-      <c r="L72" t="s">
-        <v>822</v>
-      </c>
-      <c r="M72" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>31</v>
-      </c>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" t="s">
-        <v>901</v>
-      </c>
-      <c r="C73" t="s">
-        <v>830</v>
-      </c>
-      <c r="D73" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>539</v>
-      </c>
-      <c r="H73" t="s">
-        <v>551</v>
-      </c>
-      <c r="K73" t="s">
-        <v>660</v>
-      </c>
-      <c r="L73" t="s">
-        <v>822</v>
-      </c>
-      <c r="M73" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>31</v>
-      </c>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" t="s">
-        <v>902</v>
-      </c>
-      <c r="C74" t="s">
-        <v>830</v>
-      </c>
-      <c r="D74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>539</v>
-      </c>
-      <c r="H74" t="s">
-        <v>551</v>
-      </c>
-      <c r="K74" t="s">
-        <v>660</v>
-      </c>
-      <c r="L74" t="s">
-        <v>822</v>
-      </c>
-      <c r="M74" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>31</v>
-      </c>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>903</v>
-      </c>
-      <c r="C75" t="s">
-        <v>832</v>
-      </c>
-      <c r="D75" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>539</v>
-      </c>
-      <c r="H75" t="s">
-        <v>551</v>
-      </c>
-      <c r="K75" t="s">
-        <v>660</v>
-      </c>
-      <c r="L75" t="s">
-        <v>822</v>
-      </c>
-      <c r="M75" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>31</v>
-      </c>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" t="s">
-        <v>904</v>
-      </c>
-      <c r="C76" t="s">
-        <v>830</v>
-      </c>
-      <c r="D76" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>539</v>
-      </c>
-      <c r="H76" t="s">
-        <v>551</v>
-      </c>
-      <c r="K76" t="s">
-        <v>660</v>
-      </c>
-      <c r="L76" t="s">
-        <v>822</v>
-      </c>
-      <c r="M76" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>31</v>
-      </c>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" t="s">
-        <v>905</v>
-      </c>
-      <c r="C77" t="s">
-        <v>830</v>
-      </c>
-      <c r="D77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>539</v>
-      </c>
-      <c r="H77" t="s">
-        <v>551</v>
-      </c>
-      <c r="K77" t="s">
-        <v>660</v>
-      </c>
-      <c r="L77" t="s">
-        <v>822</v>
-      </c>
-      <c r="M77" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>31</v>
-      </c>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" t="s">
-        <v>906</v>
-      </c>
-      <c r="C78" t="s">
-        <v>830</v>
-      </c>
-      <c r="D78" t="s">
-        <v>147</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>539</v>
-      </c>
-      <c r="H78" t="s">
-        <v>551</v>
-      </c>
-      <c r="K78" t="s">
-        <v>660</v>
-      </c>
-      <c r="L78" t="s">
-        <v>822</v>
-      </c>
-      <c r="M78" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>31</v>
-      </c>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6182,7 +7189,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>

--- a/ImmPort/CompletedTemplates/U01subjectHumans.xlsx
+++ b/ImmPort/CompletedTemplates/U01subjectHumans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\CompletedTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5EA38-3079-417C-9A62-A5FA25978A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20EDDA-B6B8-4B84-8F65-80A26C152E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="896">
   <si>
     <t>subjecthumans</t>
   </si>
@@ -2826,532 +2826,205 @@
     <t>White</t>
   </si>
   <si>
-    <t>INF052</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-Ctrl_Antibody</t>
-  </si>
-  <si>
-    <t>ILT_01</t>
-  </si>
-  <si>
-    <t>AntibodyPanel</t>
-  </si>
-  <si>
-    <t>ICS_Media</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-Ctrl_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>study_1716</t>
-  </si>
-  <si>
-    <t>protocol_1716_1</t>
-  </si>
-  <si>
-    <t>plannedvisit_1716_1</t>
-  </si>
-  <si>
-    <t>Cord blood</t>
-  </si>
-  <si>
-    <t>Spectral Flow Cytometry</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-Ctrl_Tetramer</t>
-  </si>
-  <si>
-    <t>TetramerPanel</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-Ctrl_Tetramer.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-Ctrl_TetramerControl</t>
-  </si>
-  <si>
-    <t>TetramerControlPanel</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-Ctrl_TetramerControl.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-PMA_Antibody</t>
-  </si>
-  <si>
-    <t>ICS_PMA</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-PMA_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF052-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF052-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-Ctrl_Antibody</t>
-  </si>
-  <si>
     <t>INF171</t>
   </si>
   <si>
-    <t>DTR_2023_ILT_01-INF171-Ctrl_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-Ctrl_Tetramer</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF171-Ctrl_Tetramer.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-Ctrl_TetramerControl</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF171-Ctrl_TetramerControl.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF171-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-PMA_Antibody</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF171-PMA_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF171-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF171-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-Ctrl_Antibody</t>
-  </si>
-  <si>
     <t>INF182</t>
   </si>
   <si>
-    <t>DTR_2023_ILT_01-INF182-Ctrl_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-Ctrl_Tetramer</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF182-Ctrl_Tetramer.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-Ctrl_TetramerControl</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF182-Ctrl_TetramerControl.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF182-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-PMA_Antibody</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF182-PMA_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF182-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF182-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-Ctrl_Antibody</t>
-  </si>
-  <si>
     <t>INF281</t>
   </si>
   <si>
-    <t>DTR_2023_ILT_01-INF281-Ctrl_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-Ctrl_Tetramer</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF281-Ctrl_Tetramer.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-Ctrl_TetramerControl</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF281-Ctrl_TetramerControl.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF281-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-PMA_Antibody</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF281-PMA_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-INF281-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-INF281-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND006_v1-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>ND006</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND006_v1-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>PBMC</t>
-  </si>
-  <si>
-    <t>ILT_01-ND006_v1-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND006_v1-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND050_v1-Ctrl_Antibody</t>
-  </si>
-  <si>
-    <t>ND050</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND050_v1-Ctrl_Tetramer</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Tetramer.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND050_v1-Ctrl_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND050_v1-PMA_Antibody</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND050_v1-PMA_Antibody.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-ND050_v1-PMA_Unstained</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-ND050_v1-PMA_Unstained.fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CCR4 BUV615 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV615 CD194</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CCR4 BUV615 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CCR6 BV786 (Cells)</t>
-  </si>
-  <si>
-    <t>BV786 CD196</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CCR6 BV786 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CCR7 BV650 (Cells)</t>
-  </si>
-  <si>
-    <t>BV650 CD197</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CCR7 BV650 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD107a APC-R700 (Cells)</t>
-  </si>
-  <si>
-    <t>APC-R700 CD107a</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD107a APC-R700 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD127 BV421 (Cells)</t>
-  </si>
-  <si>
-    <t>BV421 CD127</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD127 BV421 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD16 APC (Cells)</t>
-  </si>
-  <si>
-    <t>APC CD16</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD16 APC (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD161 BV480 (Cells)</t>
-  </si>
-  <si>
-    <t>BV480 CD161</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD161 BV480 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells)</t>
-  </si>
-  <si>
-    <t>PE-Cy5 CD25</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells)</t>
-  </si>
-  <si>
-    <t>PerCP-Cy5.5 CD26</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells)</t>
-  </si>
-  <si>
-    <t>APC-Fire 750 CD27</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells)</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 488 CD3</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells)</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 647 CD3</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD3 FITC (Cells)</t>
-  </si>
-  <si>
-    <t>FITC CD3</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 FITC (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells)</t>
-  </si>
-  <si>
-    <t>Spark Blue 550 CD3</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells)</t>
-  </si>
-  <si>
-    <t>APC-Fire 810 CD38</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD4 BUV805 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV805 CD4</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD4 BUV805 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD45RA BV510 (Cells)</t>
-  </si>
-  <si>
-    <t>BV510 CD45RA</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD45RA BV510 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD56 BV605 (Cells)</t>
-  </si>
-  <si>
-    <t>BV605 CD56</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD56 BV605 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD62L BUV395 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV395 CD62L</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD62L BUV395 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD69 BUV563 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV563 CD69</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD69 BUV563 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD7 BV711 (Cells)</t>
-  </si>
-  <si>
-    <t>BV711 CD7</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD7 BV711 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CD8 BUV496 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV496 CD8</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CD8 BUV496 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV615 CD183</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells)</t>
-  </si>
-  <si>
-    <t>Pacific Blue CD14</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells)</t>
-  </si>
-  <si>
-    <t>Pacific Blue CD19</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_IFNg BV750 (Cells)</t>
-  </si>
-  <si>
-    <t>BV750 IFNg</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_IFNg BV750 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_NKG2D PE (Cells)</t>
-  </si>
-  <si>
-    <t>PE CD314</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_NKG2D PE (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells)</t>
-  </si>
-  <si>
-    <t>PE-Vio770 PD1</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells)</t>
-  </si>
-  <si>
-    <t>PE-Dazzle594 TNFa</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_VD2 BUV661 (Cells)</t>
-  </si>
-  <si>
-    <t>BUV661 VD2</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_VD2 BUV661 (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_Viability Zombie NIR (Cells)</t>
-  </si>
-  <si>
-    <t>Zombie NIR Viability</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_Viability Zombie NIR (Cells).fcs</t>
-  </si>
-  <si>
-    <t>ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells)</t>
-  </si>
-  <si>
-    <t>DTR_2023_ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells).fcs</t>
+    <t>INF018</t>
+  </si>
+  <si>
+    <t>arm-cohort_1716_3</t>
+  </si>
+  <si>
+    <t>INF039</t>
+  </si>
+  <si>
+    <t>arm-cohort_1716_1</t>
+  </si>
+  <si>
+    <t>INF055</t>
+  </si>
+  <si>
+    <t>INF064</t>
+  </si>
+  <si>
+    <t>arm-cohort_1716_2</t>
+  </si>
+  <si>
+    <t>INF070</t>
+  </si>
+  <si>
+    <t>INF101</t>
+  </si>
+  <si>
+    <t>INF124</t>
+  </si>
+  <si>
+    <t>INF134</t>
+  </si>
+  <si>
+    <t>INF148</t>
+  </si>
+  <si>
+    <t>INF149</t>
+  </si>
+  <si>
+    <t>INF159</t>
+  </si>
+  <si>
+    <t>INF161</t>
+  </si>
+  <si>
+    <t>INF179</t>
+  </si>
+  <si>
+    <t>INF180</t>
+  </si>
+  <si>
+    <t>INF187</t>
+  </si>
+  <si>
+    <t>INF191</t>
+  </si>
+  <si>
+    <t>INF229</t>
+  </si>
+  <si>
+    <t>INF251</t>
+  </si>
+  <si>
+    <t>INF274</t>
+  </si>
+  <si>
+    <t>INF282</t>
+  </si>
+  <si>
+    <t>INF287</t>
+  </si>
+  <si>
+    <t>INF313</t>
+  </si>
+  <si>
+    <t>INF314</t>
+  </si>
+  <si>
+    <t>INF374</t>
+  </si>
+  <si>
+    <t>INF438</t>
+  </si>
+  <si>
+    <t>INF587</t>
+  </si>
+  <si>
+    <t>INF041</t>
+  </si>
+  <si>
+    <t>INF356</t>
+  </si>
+  <si>
+    <t>INF523</t>
+  </si>
+  <si>
+    <t>INF032</t>
+  </si>
+  <si>
+    <t>INF105</t>
+  </si>
+  <si>
+    <t>INF028</t>
+  </si>
+  <si>
+    <t>INF071</t>
+  </si>
+  <si>
+    <t>INF100</t>
+  </si>
+  <si>
+    <t>INF169</t>
+  </si>
+  <si>
+    <t>INF173</t>
+  </si>
+  <si>
+    <t>INF185</t>
+  </si>
+  <si>
+    <t>INF235</t>
+  </si>
+  <si>
+    <t>INF250</t>
+  </si>
+  <si>
+    <t>INF269</t>
+  </si>
+  <si>
+    <t>INF278</t>
+  </si>
+  <si>
+    <t>INF293</t>
+  </si>
+  <si>
+    <t>INF315</t>
+  </si>
+  <si>
+    <t>INF318</t>
+  </si>
+  <si>
+    <t>INF320</t>
+  </si>
+  <si>
+    <t>INF342</t>
+  </si>
+  <si>
+    <t>INF387</t>
+  </si>
+  <si>
+    <t>INF479</t>
+  </si>
+  <si>
+    <t>INF548</t>
+  </si>
+  <si>
+    <t>INF557</t>
+  </si>
+  <si>
+    <t>INF568</t>
+  </si>
+  <si>
+    <t>INF574</t>
+  </si>
+  <si>
+    <t>INF599</t>
+  </si>
+  <si>
+    <t>INF661</t>
+  </si>
+  <si>
+    <t>INF665</t>
+  </si>
+  <si>
+    <t>INF692</t>
+  </si>
+  <si>
+    <t>INF694</t>
+  </si>
+  <si>
+    <t>INF718</t>
+  </si>
+  <si>
+    <t>INF759</t>
+  </si>
+  <si>
+    <t>INF786</t>
+  </si>
+  <si>
+    <t>INF809</t>
   </si>
 </sst>
 </file>
@@ -3812,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A4:XFD34"/>
+      <selection activeCell="B4" sqref="B4:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,7 +3496,7 @@
     <col min="1" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3831,12 +3504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3904,3268 +3577,2164 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C4" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
-      </c>
-      <c r="E4" t="s">
-        <v>832</v>
-      </c>
-      <c r="F4" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>834</v>
+        <v>543</v>
+      </c>
+      <c r="H4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K4" t="s">
+        <v>660</v>
       </c>
       <c r="L4" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M4" t="s">
-        <v>836</v>
-      </c>
-      <c r="N4" t="s">
-        <v>829</v>
-      </c>
-      <c r="O4" t="s">
-        <v>837</v>
-      </c>
-      <c r="P4" t="s">
-        <v>838</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>539</v>
-      </c>
-      <c r="V4" t="s">
-        <v>543</v>
-      </c>
-      <c r="X4" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D5" t="s">
-        <v>831</v>
-      </c>
-      <c r="E5" t="s">
-        <v>841</v>
-      </c>
-      <c r="F5" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>842</v>
+        <v>543</v>
+      </c>
+      <c r="H5" t="s">
+        <v>551</v>
+      </c>
+      <c r="K5" t="s">
+        <v>660</v>
       </c>
       <c r="L5" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M5" t="s">
-        <v>836</v>
-      </c>
-      <c r="N5" t="s">
-        <v>829</v>
-      </c>
-      <c r="O5" t="s">
-        <v>837</v>
-      </c>
-      <c r="P5" t="s">
-        <v>838</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>539</v>
-      </c>
-      <c r="V5" t="s">
-        <v>543</v>
-      </c>
-      <c r="X5" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C6" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D6" t="s">
-        <v>831</v>
-      </c>
-      <c r="E6" t="s">
-        <v>844</v>
-      </c>
-      <c r="F6" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>845</v>
+        <v>543</v>
+      </c>
+      <c r="H6" t="s">
+        <v>551</v>
+      </c>
+      <c r="K6" t="s">
+        <v>660</v>
       </c>
       <c r="L6" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M6" t="s">
-        <v>836</v>
-      </c>
-      <c r="N6" t="s">
-        <v>829</v>
-      </c>
-      <c r="O6" t="s">
-        <v>837</v>
-      </c>
-      <c r="P6" t="s">
-        <v>838</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>539</v>
-      </c>
-      <c r="V6" t="s">
-        <v>543</v>
-      </c>
-      <c r="X6" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C7" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="D7" t="s">
-        <v>831</v>
-      </c>
-      <c r="E7" t="s">
-        <v>847</v>
-      </c>
-      <c r="F7" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>848</v>
+        <v>543</v>
+      </c>
+      <c r="H7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K7" t="s">
+        <v>660</v>
       </c>
       <c r="L7" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M7" t="s">
-        <v>836</v>
-      </c>
-      <c r="N7" t="s">
-        <v>829</v>
-      </c>
-      <c r="O7" t="s">
-        <v>837</v>
-      </c>
-      <c r="P7" t="s">
-        <v>838</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>539</v>
-      </c>
-      <c r="V7" t="s">
-        <v>543</v>
-      </c>
-      <c r="X7" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C8" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D8" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" t="s">
-        <v>832</v>
-      </c>
-      <c r="F8" t="s">
-        <v>850</v>
+        <v>146</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>851</v>
+        <v>543</v>
+      </c>
+      <c r="H8" t="s">
+        <v>551</v>
+      </c>
+      <c r="K8" t="s">
+        <v>660</v>
       </c>
       <c r="L8" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M8" t="s">
-        <v>836</v>
-      </c>
-      <c r="N8" t="s">
-        <v>829</v>
-      </c>
-      <c r="O8" t="s">
-        <v>837</v>
-      </c>
-      <c r="P8" t="s">
-        <v>838</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>539</v>
-      </c>
-      <c r="V8" t="s">
-        <v>543</v>
-      </c>
-      <c r="X8" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="C9" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D9" t="s">
-        <v>831</v>
-      </c>
-      <c r="E9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F9" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>853</v>
+        <v>543</v>
+      </c>
+      <c r="H9" t="s">
+        <v>551</v>
+      </c>
+      <c r="K9" t="s">
+        <v>660</v>
       </c>
       <c r="L9" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M9" t="s">
-        <v>836</v>
-      </c>
-      <c r="N9" t="s">
-        <v>829</v>
-      </c>
-      <c r="O9" t="s">
-        <v>837</v>
-      </c>
-      <c r="P9" t="s">
-        <v>838</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>539</v>
-      </c>
-      <c r="V9" t="s">
-        <v>543</v>
-      </c>
-      <c r="X9" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C10" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
-      </c>
-      <c r="E10" t="s">
-        <v>832</v>
-      </c>
-      <c r="F10" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>856</v>
+        <v>543</v>
+      </c>
+      <c r="H10" t="s">
+        <v>551</v>
+      </c>
+      <c r="K10" t="s">
+        <v>660</v>
       </c>
       <c r="L10" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M10" t="s">
-        <v>836</v>
-      </c>
-      <c r="N10" t="s">
-        <v>855</v>
-      </c>
-      <c r="O10" t="s">
-        <v>837</v>
-      </c>
-      <c r="P10" t="s">
-        <v>838</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>539</v>
-      </c>
-      <c r="V10" t="s">
-        <v>543</v>
-      </c>
-      <c r="X10" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="C11" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="D11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E11" t="s">
-        <v>841</v>
-      </c>
-      <c r="F11" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>858</v>
+        <v>543</v>
+      </c>
+      <c r="H11" t="s">
+        <v>551</v>
+      </c>
+      <c r="K11" t="s">
+        <v>660</v>
       </c>
       <c r="L11" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M11" t="s">
-        <v>836</v>
-      </c>
-      <c r="N11" t="s">
-        <v>855</v>
-      </c>
-      <c r="O11" t="s">
-        <v>837</v>
-      </c>
-      <c r="P11" t="s">
-        <v>838</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>539</v>
-      </c>
-      <c r="V11" t="s">
-        <v>543</v>
-      </c>
-      <c r="X11" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C12" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
-      </c>
-      <c r="E12" t="s">
-        <v>844</v>
-      </c>
-      <c r="F12" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>860</v>
+        <v>543</v>
+      </c>
+      <c r="H12" t="s">
+        <v>551</v>
+      </c>
+      <c r="K12" t="s">
+        <v>660</v>
       </c>
       <c r="L12" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M12" t="s">
-        <v>836</v>
-      </c>
-      <c r="N12" t="s">
-        <v>855</v>
-      </c>
-      <c r="O12" t="s">
-        <v>837</v>
-      </c>
-      <c r="P12" t="s">
-        <v>838</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>539</v>
-      </c>
-      <c r="V12" t="s">
-        <v>543</v>
-      </c>
-      <c r="X12" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="C13" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="D13" t="s">
-        <v>831</v>
-      </c>
-      <c r="E13" t="s">
-        <v>847</v>
-      </c>
-      <c r="F13" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>862</v>
+        <v>543</v>
+      </c>
+      <c r="H13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K13" t="s">
+        <v>660</v>
       </c>
       <c r="L13" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M13" t="s">
-        <v>836</v>
-      </c>
-      <c r="N13" t="s">
-        <v>855</v>
-      </c>
-      <c r="O13" t="s">
-        <v>837</v>
-      </c>
-      <c r="P13" t="s">
-        <v>838</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>539</v>
-      </c>
-      <c r="V13" t="s">
-        <v>543</v>
-      </c>
-      <c r="X13" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="C14" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D14" t="s">
-        <v>831</v>
-      </c>
-      <c r="E14" t="s">
-        <v>832</v>
-      </c>
-      <c r="F14" t="s">
-        <v>850</v>
+        <v>147</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>864</v>
+        <v>543</v>
+      </c>
+      <c r="H14" t="s">
+        <v>551</v>
+      </c>
+      <c r="K14" t="s">
+        <v>660</v>
       </c>
       <c r="L14" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M14" t="s">
-        <v>836</v>
-      </c>
-      <c r="N14" t="s">
-        <v>855</v>
-      </c>
-      <c r="O14" t="s">
-        <v>837</v>
-      </c>
-      <c r="P14" t="s">
-        <v>838</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>539</v>
-      </c>
-      <c r="V14" t="s">
-        <v>543</v>
-      </c>
-      <c r="X14" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="C15" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="D15" t="s">
-        <v>831</v>
-      </c>
-      <c r="E15" t="s">
-        <v>847</v>
-      </c>
-      <c r="F15" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>866</v>
+        <v>543</v>
+      </c>
+      <c r="H15" t="s">
+        <v>551</v>
+      </c>
+      <c r="K15" t="s">
+        <v>660</v>
       </c>
       <c r="L15" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M15" t="s">
-        <v>836</v>
-      </c>
-      <c r="N15" t="s">
-        <v>855</v>
-      </c>
-      <c r="O15" t="s">
-        <v>837</v>
-      </c>
-      <c r="P15" t="s">
-        <v>838</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>539</v>
-      </c>
-      <c r="V15" t="s">
-        <v>543</v>
-      </c>
-      <c r="X15" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>867</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="D16" t="s">
-        <v>831</v>
-      </c>
-      <c r="E16" t="s">
-        <v>832</v>
-      </c>
-      <c r="F16" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>869</v>
+        <v>543</v>
+      </c>
+      <c r="H16" t="s">
+        <v>551</v>
+      </c>
+      <c r="K16" t="s">
+        <v>660</v>
       </c>
       <c r="L16" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M16" t="s">
-        <v>836</v>
-      </c>
-      <c r="N16" t="s">
-        <v>868</v>
-      </c>
-      <c r="O16" t="s">
-        <v>837</v>
-      </c>
-      <c r="P16" t="s">
-        <v>838</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>539</v>
-      </c>
-      <c r="V16" t="s">
-        <v>543</v>
-      </c>
-      <c r="X16" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="C17" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="D17" t="s">
-        <v>831</v>
-      </c>
-      <c r="E17" t="s">
-        <v>841</v>
-      </c>
-      <c r="F17" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>871</v>
+        <v>543</v>
+      </c>
+      <c r="H17" t="s">
+        <v>551</v>
+      </c>
+      <c r="K17" t="s">
+        <v>660</v>
       </c>
       <c r="L17" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M17" t="s">
-        <v>836</v>
-      </c>
-      <c r="N17" t="s">
-        <v>868</v>
-      </c>
-      <c r="O17" t="s">
-        <v>837</v>
-      </c>
-      <c r="P17" t="s">
-        <v>838</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>539</v>
-      </c>
-      <c r="V17" t="s">
-        <v>543</v>
-      </c>
-      <c r="X17" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C18" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="D18" t="s">
-        <v>831</v>
-      </c>
-      <c r="E18" t="s">
-        <v>844</v>
-      </c>
-      <c r="F18" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>873</v>
+        <v>543</v>
+      </c>
+      <c r="H18" t="s">
+        <v>551</v>
+      </c>
+      <c r="K18" t="s">
+        <v>660</v>
       </c>
       <c r="L18" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M18" t="s">
-        <v>836</v>
-      </c>
-      <c r="N18" t="s">
-        <v>868</v>
-      </c>
-      <c r="O18" t="s">
-        <v>837</v>
-      </c>
-      <c r="P18" t="s">
-        <v>838</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>539</v>
-      </c>
-      <c r="V18" t="s">
-        <v>543</v>
-      </c>
-      <c r="X18" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>874</v>
+        <v>830</v>
       </c>
       <c r="C19" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="D19" t="s">
-        <v>831</v>
-      </c>
-      <c r="E19" t="s">
-        <v>847</v>
-      </c>
-      <c r="F19" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>875</v>
+        <v>543</v>
+      </c>
+      <c r="H19" t="s">
+        <v>551</v>
+      </c>
+      <c r="K19" t="s">
+        <v>660</v>
       </c>
       <c r="L19" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M19" t="s">
-        <v>836</v>
-      </c>
-      <c r="N19" t="s">
-        <v>868</v>
-      </c>
-      <c r="O19" t="s">
-        <v>837</v>
-      </c>
-      <c r="P19" t="s">
-        <v>838</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>539</v>
-      </c>
-      <c r="V19" t="s">
-        <v>543</v>
-      </c>
-      <c r="X19" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="C20" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="D20" t="s">
-        <v>831</v>
-      </c>
-      <c r="E20" t="s">
-        <v>832</v>
-      </c>
-      <c r="F20" t="s">
-        <v>850</v>
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>877</v>
+        <v>543</v>
+      </c>
+      <c r="H20" t="s">
+        <v>551</v>
+      </c>
+      <c r="K20" t="s">
+        <v>660</v>
       </c>
       <c r="L20" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M20" t="s">
-        <v>836</v>
-      </c>
-      <c r="N20" t="s">
-        <v>868</v>
-      </c>
-      <c r="O20" t="s">
-        <v>837</v>
-      </c>
-      <c r="P20" t="s">
-        <v>838</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>539</v>
-      </c>
-      <c r="V20" t="s">
-        <v>543</v>
-      </c>
-      <c r="X20" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="C21" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="D21" t="s">
-        <v>831</v>
-      </c>
-      <c r="E21" t="s">
-        <v>847</v>
-      </c>
-      <c r="F21" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>879</v>
+        <v>543</v>
+      </c>
+      <c r="H21" t="s">
+        <v>551</v>
+      </c>
+      <c r="K21" t="s">
+        <v>660</v>
       </c>
       <c r="L21" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M21" t="s">
-        <v>836</v>
-      </c>
-      <c r="N21" t="s">
-        <v>868</v>
-      </c>
-      <c r="O21" t="s">
-        <v>837</v>
-      </c>
-      <c r="P21" t="s">
-        <v>838</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>539</v>
-      </c>
-      <c r="V21" t="s">
-        <v>543</v>
-      </c>
-      <c r="X21" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="C22" t="s">
-        <v>881</v>
+        <v>838</v>
       </c>
       <c r="D22" t="s">
-        <v>831</v>
-      </c>
-      <c r="E22" t="s">
-        <v>832</v>
-      </c>
-      <c r="F22" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>882</v>
+        <v>543</v>
+      </c>
+      <c r="H22" t="s">
+        <v>551</v>
+      </c>
+      <c r="K22" t="s">
+        <v>660</v>
       </c>
       <c r="L22" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M22" t="s">
-        <v>836</v>
-      </c>
-      <c r="N22" t="s">
-        <v>881</v>
-      </c>
-      <c r="O22" t="s">
-        <v>837</v>
-      </c>
-      <c r="P22" t="s">
-        <v>838</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>539</v>
-      </c>
-      <c r="V22" t="s">
-        <v>543</v>
-      </c>
-      <c r="X22" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="C23" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
       <c r="D23" t="s">
-        <v>831</v>
-      </c>
-      <c r="E23" t="s">
-        <v>841</v>
-      </c>
-      <c r="F23" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>884</v>
+        <v>543</v>
+      </c>
+      <c r="H23" t="s">
+        <v>551</v>
+      </c>
+      <c r="K23" t="s">
+        <v>660</v>
       </c>
       <c r="L23" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M23" t="s">
-        <v>836</v>
-      </c>
-      <c r="N23" t="s">
-        <v>881</v>
-      </c>
-      <c r="O23" t="s">
-        <v>837</v>
-      </c>
-      <c r="P23" t="s">
-        <v>838</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>539</v>
-      </c>
-      <c r="V23" t="s">
-        <v>543</v>
-      </c>
-      <c r="X23" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
       <c r="C24" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
       <c r="D24" t="s">
-        <v>831</v>
-      </c>
-      <c r="E24" t="s">
-        <v>844</v>
-      </c>
-      <c r="F24" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>886</v>
+        <v>543</v>
+      </c>
+      <c r="H24" t="s">
+        <v>551</v>
+      </c>
+      <c r="K24" t="s">
+        <v>660</v>
       </c>
       <c r="L24" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M24" t="s">
-        <v>836</v>
-      </c>
-      <c r="N24" t="s">
-        <v>881</v>
-      </c>
-      <c r="O24" t="s">
-        <v>837</v>
-      </c>
-      <c r="P24" t="s">
-        <v>838</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>539</v>
-      </c>
-      <c r="V24" t="s">
-        <v>543</v>
-      </c>
-      <c r="X24" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>887</v>
+        <v>831</v>
       </c>
       <c r="C25" t="s">
-        <v>881</v>
+        <v>838</v>
       </c>
       <c r="D25" t="s">
-        <v>831</v>
-      </c>
-      <c r="E25" t="s">
-        <v>847</v>
-      </c>
-      <c r="F25" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>888</v>
+        <v>543</v>
+      </c>
+      <c r="H25" t="s">
+        <v>551</v>
+      </c>
+      <c r="K25" t="s">
+        <v>660</v>
       </c>
       <c r="L25" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M25" t="s">
-        <v>836</v>
-      </c>
-      <c r="N25" t="s">
-        <v>881</v>
-      </c>
-      <c r="O25" t="s">
-        <v>837</v>
-      </c>
-      <c r="P25" t="s">
-        <v>838</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>539</v>
-      </c>
-      <c r="V25" t="s">
-        <v>543</v>
-      </c>
-      <c r="X25" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="C26" t="s">
-        <v>881</v>
+        <v>838</v>
       </c>
       <c r="D26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E26" t="s">
-        <v>832</v>
-      </c>
-      <c r="F26" t="s">
-        <v>850</v>
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>890</v>
+        <v>543</v>
+      </c>
+      <c r="H26" t="s">
+        <v>551</v>
+      </c>
+      <c r="K26" t="s">
+        <v>660</v>
       </c>
       <c r="L26" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M26" t="s">
-        <v>836</v>
-      </c>
-      <c r="N26" t="s">
-        <v>881</v>
-      </c>
-      <c r="O26" t="s">
-        <v>837</v>
-      </c>
-      <c r="P26" t="s">
-        <v>838</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>539</v>
-      </c>
-      <c r="V26" t="s">
-        <v>543</v>
-      </c>
-      <c r="X26" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>891</v>
+        <v>855</v>
       </c>
       <c r="C27" t="s">
-        <v>881</v>
+        <v>838</v>
       </c>
       <c r="D27" t="s">
-        <v>831</v>
-      </c>
-      <c r="E27" t="s">
-        <v>847</v>
-      </c>
-      <c r="F27" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>892</v>
+        <v>543</v>
+      </c>
+      <c r="H27" t="s">
+        <v>551</v>
+      </c>
+      <c r="K27" t="s">
+        <v>660</v>
       </c>
       <c r="L27" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M27" t="s">
-        <v>836</v>
-      </c>
-      <c r="N27" t="s">
-        <v>881</v>
-      </c>
-      <c r="O27" t="s">
-        <v>837</v>
-      </c>
-      <c r="P27" t="s">
-        <v>838</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
-        <v>539</v>
-      </c>
-      <c r="V27" t="s">
-        <v>543</v>
-      </c>
-      <c r="X27" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
       <c r="C28" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D28" t="s">
-        <v>831</v>
-      </c>
-      <c r="E28" t="s">
-        <v>847</v>
-      </c>
-      <c r="F28" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>895</v>
+        <v>543</v>
+      </c>
+      <c r="H28" t="s">
+        <v>551</v>
+      </c>
+      <c r="K28" t="s">
+        <v>660</v>
       </c>
       <c r="L28" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M28" t="s">
-        <v>836</v>
-      </c>
-      <c r="N28" t="s">
-        <v>894</v>
-      </c>
-      <c r="O28" t="s">
-        <v>837</v>
-      </c>
-      <c r="P28" t="s">
-        <v>896</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>539</v>
-      </c>
-      <c r="V28" t="s">
-        <v>543</v>
-      </c>
-      <c r="X28" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="C29" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D29" t="s">
-        <v>831</v>
-      </c>
-      <c r="E29" t="s">
-        <v>847</v>
-      </c>
-      <c r="F29" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>898</v>
+        <v>543</v>
+      </c>
+      <c r="H29" t="s">
+        <v>551</v>
+      </c>
+      <c r="K29" t="s">
+        <v>660</v>
       </c>
       <c r="L29" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M29" t="s">
-        <v>836</v>
-      </c>
-      <c r="N29" t="s">
-        <v>894</v>
-      </c>
-      <c r="O29" t="s">
-        <v>837</v>
-      </c>
-      <c r="P29" t="s">
-        <v>896</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>539</v>
-      </c>
-      <c r="V29" t="s">
-        <v>543</v>
-      </c>
-      <c r="X29" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="C30" t="s">
-        <v>900</v>
+        <v>838</v>
       </c>
       <c r="D30" t="s">
-        <v>831</v>
-      </c>
-      <c r="E30" t="s">
-        <v>832</v>
-      </c>
-      <c r="F30" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>901</v>
+        <v>543</v>
+      </c>
+      <c r="H30" t="s">
+        <v>551</v>
+      </c>
+      <c r="K30" t="s">
+        <v>660</v>
       </c>
       <c r="L30" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M30" t="s">
-        <v>836</v>
-      </c>
-      <c r="N30" t="s">
-        <v>900</v>
-      </c>
-      <c r="O30" t="s">
-        <v>837</v>
-      </c>
-      <c r="P30" t="s">
-        <v>896</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
-        <v>539</v>
-      </c>
-      <c r="V30" t="s">
-        <v>543</v>
-      </c>
-      <c r="X30" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>902</v>
+        <v>859</v>
       </c>
       <c r="C31" t="s">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="D31" t="s">
-        <v>831</v>
-      </c>
-      <c r="E31" t="s">
-        <v>841</v>
-      </c>
-      <c r="F31" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>903</v>
+        <v>543</v>
+      </c>
+      <c r="H31" t="s">
+        <v>551</v>
+      </c>
+      <c r="K31" t="s">
+        <v>660</v>
       </c>
       <c r="L31" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M31" t="s">
-        <v>836</v>
-      </c>
-      <c r="N31" t="s">
-        <v>900</v>
-      </c>
-      <c r="O31" t="s">
-        <v>837</v>
-      </c>
-      <c r="P31" t="s">
-        <v>896</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>539</v>
-      </c>
-      <c r="V31" t="s">
-        <v>543</v>
-      </c>
-      <c r="X31" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>904</v>
+        <v>860</v>
       </c>
       <c r="C32" t="s">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="D32" t="s">
-        <v>831</v>
-      </c>
-      <c r="E32" t="s">
-        <v>847</v>
-      </c>
-      <c r="F32" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>905</v>
+        <v>543</v>
+      </c>
+      <c r="H32" t="s">
+        <v>551</v>
+      </c>
+      <c r="K32" t="s">
+        <v>660</v>
       </c>
       <c r="L32" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M32" t="s">
-        <v>836</v>
-      </c>
-      <c r="N32" t="s">
-        <v>900</v>
-      </c>
-      <c r="O32" t="s">
-        <v>837</v>
-      </c>
-      <c r="P32" t="s">
-        <v>896</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>539</v>
-      </c>
-      <c r="V32" t="s">
-        <v>543</v>
-      </c>
-      <c r="X32" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>906</v>
+        <v>861</v>
       </c>
       <c r="C33" t="s">
-        <v>900</v>
+        <v>838</v>
       </c>
       <c r="D33" t="s">
-        <v>831</v>
-      </c>
-      <c r="E33" t="s">
-        <v>832</v>
-      </c>
-      <c r="F33" t="s">
-        <v>850</v>
+        <v>146</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>907</v>
+        <v>543</v>
+      </c>
+      <c r="H33" t="s">
+        <v>551</v>
+      </c>
+      <c r="K33" t="s">
+        <v>660</v>
       </c>
       <c r="L33" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M33" t="s">
-        <v>836</v>
-      </c>
-      <c r="N33" t="s">
-        <v>900</v>
-      </c>
-      <c r="O33" t="s">
-        <v>837</v>
-      </c>
-      <c r="P33" t="s">
-        <v>896</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>539</v>
-      </c>
-      <c r="V33" t="s">
-        <v>543</v>
-      </c>
-      <c r="X33" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="C34" t="s">
-        <v>900</v>
+        <v>838</v>
       </c>
       <c r="D34" t="s">
-        <v>831</v>
-      </c>
-      <c r="E34" t="s">
-        <v>847</v>
-      </c>
-      <c r="F34" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>909</v>
+        <v>543</v>
+      </c>
+      <c r="H34" t="s">
+        <v>551</v>
+      </c>
+      <c r="K34" t="s">
+        <v>660</v>
       </c>
       <c r="L34" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M34" t="s">
-        <v>836</v>
-      </c>
-      <c r="N34" t="s">
-        <v>900</v>
-      </c>
-      <c r="O34" t="s">
-        <v>837</v>
-      </c>
-      <c r="P34" t="s">
-        <v>896</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
-        <v>539</v>
-      </c>
-      <c r="V34" t="s">
-        <v>543</v>
-      </c>
-      <c r="X34" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="C35" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D35" t="s">
-        <v>831</v>
-      </c>
-      <c r="E35" t="s">
-        <v>911</v>
-      </c>
-      <c r="F35" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>912</v>
+        <v>543</v>
+      </c>
+      <c r="H35" t="s">
+        <v>551</v>
+      </c>
+      <c r="K35" t="s">
+        <v>660</v>
       </c>
       <c r="L35" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M35" t="s">
-        <v>836</v>
-      </c>
-      <c r="N35" t="s">
-        <v>894</v>
-      </c>
-      <c r="O35" t="s">
-        <v>837</v>
-      </c>
-      <c r="P35" t="s">
-        <v>896</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>539</v>
-      </c>
-      <c r="V35" t="s">
-        <v>543</v>
-      </c>
-      <c r="X35" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>913</v>
+        <v>864</v>
       </c>
       <c r="C36" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D36" t="s">
-        <v>831</v>
-      </c>
-      <c r="E36" t="s">
-        <v>914</v>
-      </c>
-      <c r="F36" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>915</v>
+        <v>543</v>
+      </c>
+      <c r="H36" t="s">
+        <v>551</v>
+      </c>
+      <c r="K36" t="s">
+        <v>660</v>
       </c>
       <c r="L36" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M36" t="s">
-        <v>836</v>
-      </c>
-      <c r="N36" t="s">
-        <v>894</v>
-      </c>
-      <c r="O36" t="s">
-        <v>837</v>
-      </c>
-      <c r="P36" t="s">
-        <v>896</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36" t="s">
-        <v>539</v>
-      </c>
-      <c r="V36" t="s">
-        <v>543</v>
-      </c>
-      <c r="X36" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>916</v>
+        <v>865</v>
       </c>
       <c r="C37" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D37" t="s">
-        <v>831</v>
-      </c>
-      <c r="E37" t="s">
-        <v>917</v>
-      </c>
-      <c r="F37" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>918</v>
+        <v>543</v>
+      </c>
+      <c r="H37" t="s">
+        <v>551</v>
+      </c>
+      <c r="K37" t="s">
+        <v>660</v>
       </c>
       <c r="L37" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M37" t="s">
-        <v>836</v>
-      </c>
-      <c r="N37" t="s">
-        <v>894</v>
-      </c>
-      <c r="O37" t="s">
-        <v>837</v>
-      </c>
-      <c r="P37" t="s">
-        <v>896</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>539</v>
-      </c>
-      <c r="V37" t="s">
-        <v>543</v>
-      </c>
-      <c r="X37" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>919</v>
+        <v>866</v>
       </c>
       <c r="C38" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D38" t="s">
-        <v>831</v>
-      </c>
-      <c r="E38" t="s">
-        <v>920</v>
-      </c>
-      <c r="F38" t="s">
-        <v>850</v>
+        <v>147</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>921</v>
+        <v>543</v>
+      </c>
+      <c r="H38" t="s">
+        <v>551</v>
+      </c>
+      <c r="K38" t="s">
+        <v>660</v>
       </c>
       <c r="L38" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M38" t="s">
-        <v>836</v>
-      </c>
-      <c r="N38" t="s">
-        <v>894</v>
-      </c>
-      <c r="O38" t="s">
-        <v>837</v>
-      </c>
-      <c r="P38" t="s">
-        <v>896</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>539</v>
-      </c>
-      <c r="V38" t="s">
-        <v>543</v>
-      </c>
-      <c r="X38" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="C39" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D39" t="s">
-        <v>831</v>
-      </c>
-      <c r="E39" t="s">
-        <v>923</v>
-      </c>
-      <c r="F39" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>924</v>
+        <v>543</v>
+      </c>
+      <c r="H39" t="s">
+        <v>551</v>
+      </c>
+      <c r="K39" t="s">
+        <v>660</v>
       </c>
       <c r="L39" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M39" t="s">
-        <v>836</v>
-      </c>
-      <c r="N39" t="s">
-        <v>894</v>
-      </c>
-      <c r="O39" t="s">
-        <v>837</v>
-      </c>
-      <c r="P39" t="s">
-        <v>896</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>539</v>
-      </c>
-      <c r="V39" t="s">
-        <v>543</v>
-      </c>
-      <c r="X39" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>925</v>
+        <v>868</v>
       </c>
       <c r="C40" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D40" t="s">
-        <v>831</v>
-      </c>
-      <c r="E40" t="s">
-        <v>926</v>
-      </c>
-      <c r="F40" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>927</v>
+        <v>543</v>
+      </c>
+      <c r="H40" t="s">
+        <v>551</v>
+      </c>
+      <c r="K40" t="s">
+        <v>660</v>
       </c>
       <c r="L40" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M40" t="s">
-        <v>836</v>
-      </c>
-      <c r="N40" t="s">
-        <v>894</v>
-      </c>
-      <c r="O40" t="s">
-        <v>837</v>
-      </c>
-      <c r="P40" t="s">
-        <v>896</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40" t="s">
-        <v>539</v>
-      </c>
-      <c r="V40" t="s">
-        <v>543</v>
-      </c>
-      <c r="X40" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>928</v>
+        <v>869</v>
       </c>
       <c r="C41" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D41" t="s">
-        <v>831</v>
-      </c>
-      <c r="E41" t="s">
-        <v>929</v>
-      </c>
-      <c r="F41" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>930</v>
+        <v>543</v>
+      </c>
+      <c r="H41" t="s">
+        <v>551</v>
+      </c>
+      <c r="K41" t="s">
+        <v>660</v>
       </c>
       <c r="L41" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M41" t="s">
-        <v>836</v>
-      </c>
-      <c r="N41" t="s">
-        <v>894</v>
-      </c>
-      <c r="O41" t="s">
-        <v>837</v>
-      </c>
-      <c r="P41" t="s">
-        <v>896</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
-        <v>539</v>
-      </c>
-      <c r="V41" t="s">
-        <v>543</v>
-      </c>
-      <c r="X41" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>931</v>
+        <v>870</v>
       </c>
       <c r="C42" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D42" t="s">
-        <v>831</v>
-      </c>
-      <c r="E42" t="s">
-        <v>932</v>
-      </c>
-      <c r="F42" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>933</v>
+        <v>543</v>
+      </c>
+      <c r="H42" t="s">
+        <v>551</v>
+      </c>
+      <c r="K42" t="s">
+        <v>660</v>
       </c>
       <c r="L42" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M42" t="s">
-        <v>836</v>
-      </c>
-      <c r="N42" t="s">
-        <v>894</v>
-      </c>
-      <c r="O42" t="s">
-        <v>837</v>
-      </c>
-      <c r="P42" t="s">
-        <v>896</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>539</v>
-      </c>
-      <c r="V42" t="s">
-        <v>543</v>
-      </c>
-      <c r="X42" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>934</v>
+        <v>871</v>
       </c>
       <c r="C43" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D43" t="s">
-        <v>831</v>
-      </c>
-      <c r="E43" t="s">
-        <v>935</v>
-      </c>
-      <c r="F43" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>936</v>
+        <v>543</v>
+      </c>
+      <c r="H43" t="s">
+        <v>551</v>
+      </c>
+      <c r="K43" t="s">
+        <v>660</v>
       </c>
       <c r="L43" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M43" t="s">
-        <v>836</v>
-      </c>
-      <c r="N43" t="s">
-        <v>894</v>
-      </c>
-      <c r="O43" t="s">
-        <v>837</v>
-      </c>
-      <c r="P43" t="s">
-        <v>896</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43" t="s">
-        <v>539</v>
-      </c>
-      <c r="V43" t="s">
-        <v>543</v>
-      </c>
-      <c r="X43" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>937</v>
+        <v>872</v>
       </c>
       <c r="C44" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D44" t="s">
-        <v>831</v>
-      </c>
-      <c r="E44" t="s">
-        <v>938</v>
-      </c>
-      <c r="F44" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>939</v>
+        <v>543</v>
+      </c>
+      <c r="H44" t="s">
+        <v>551</v>
+      </c>
+      <c r="K44" t="s">
+        <v>660</v>
       </c>
       <c r="L44" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M44" t="s">
-        <v>836</v>
-      </c>
-      <c r="N44" t="s">
-        <v>894</v>
-      </c>
-      <c r="O44" t="s">
-        <v>837</v>
-      </c>
-      <c r="P44" t="s">
-        <v>896</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>539</v>
-      </c>
-      <c r="V44" t="s">
-        <v>543</v>
-      </c>
-      <c r="X44" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>940</v>
+        <v>873</v>
       </c>
       <c r="C45" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D45" t="s">
-        <v>831</v>
-      </c>
-      <c r="E45" t="s">
-        <v>941</v>
-      </c>
-      <c r="F45" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>942</v>
+        <v>543</v>
+      </c>
+      <c r="H45" t="s">
+        <v>551</v>
+      </c>
+      <c r="K45" t="s">
+        <v>660</v>
       </c>
       <c r="L45" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M45" t="s">
-        <v>836</v>
-      </c>
-      <c r="N45" t="s">
-        <v>894</v>
-      </c>
-      <c r="O45" t="s">
-        <v>837</v>
-      </c>
-      <c r="P45" t="s">
-        <v>896</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45" t="s">
-        <v>539</v>
-      </c>
-      <c r="V45" t="s">
-        <v>543</v>
-      </c>
-      <c r="X45" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>943</v>
+        <v>874</v>
       </c>
       <c r="C46" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D46" t="s">
-        <v>831</v>
-      </c>
-      <c r="E46" t="s">
-        <v>944</v>
-      </c>
-      <c r="F46" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>945</v>
+        <v>543</v>
+      </c>
+      <c r="H46" t="s">
+        <v>551</v>
+      </c>
+      <c r="K46" t="s">
+        <v>660</v>
       </c>
       <c r="L46" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M46" t="s">
-        <v>836</v>
-      </c>
-      <c r="N46" t="s">
-        <v>894</v>
-      </c>
-      <c r="O46" t="s">
-        <v>837</v>
-      </c>
-      <c r="P46" t="s">
-        <v>896</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46" t="s">
-        <v>539</v>
-      </c>
-      <c r="V46" t="s">
-        <v>543</v>
-      </c>
-      <c r="X46" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>946</v>
+        <v>875</v>
       </c>
       <c r="C47" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D47" t="s">
-        <v>831</v>
-      </c>
-      <c r="E47" t="s">
-        <v>947</v>
-      </c>
-      <c r="F47" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>948</v>
+        <v>543</v>
+      </c>
+      <c r="H47" t="s">
+        <v>551</v>
+      </c>
+      <c r="K47" t="s">
+        <v>660</v>
       </c>
       <c r="L47" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M47" t="s">
-        <v>836</v>
-      </c>
-      <c r="N47" t="s">
-        <v>894</v>
-      </c>
-      <c r="O47" t="s">
-        <v>837</v>
-      </c>
-      <c r="P47" t="s">
-        <v>896</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47" t="s">
-        <v>539</v>
-      </c>
-      <c r="V47" t="s">
-        <v>543</v>
-      </c>
-      <c r="X47" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>949</v>
+        <v>876</v>
       </c>
       <c r="C48" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D48" t="s">
-        <v>831</v>
-      </c>
-      <c r="E48" t="s">
-        <v>950</v>
-      </c>
-      <c r="F48" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>951</v>
+        <v>543</v>
+      </c>
+      <c r="H48" t="s">
+        <v>551</v>
+      </c>
+      <c r="K48" t="s">
+        <v>660</v>
       </c>
       <c r="L48" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M48" t="s">
-        <v>836</v>
-      </c>
-      <c r="N48" t="s">
-        <v>894</v>
-      </c>
-      <c r="O48" t="s">
-        <v>837</v>
-      </c>
-      <c r="P48" t="s">
-        <v>896</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48" t="s">
-        <v>539</v>
-      </c>
-      <c r="V48" t="s">
-        <v>543</v>
-      </c>
-      <c r="X48" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>952</v>
+        <v>877</v>
       </c>
       <c r="C49" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D49" t="s">
-        <v>831</v>
-      </c>
-      <c r="E49" t="s">
-        <v>953</v>
-      </c>
-      <c r="F49" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>954</v>
+        <v>543</v>
+      </c>
+      <c r="H49" t="s">
+        <v>551</v>
+      </c>
+      <c r="K49" t="s">
+        <v>660</v>
       </c>
       <c r="L49" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M49" t="s">
-        <v>836</v>
-      </c>
-      <c r="N49" t="s">
-        <v>894</v>
-      </c>
-      <c r="O49" t="s">
-        <v>837</v>
-      </c>
-      <c r="P49" t="s">
-        <v>896</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49" t="s">
-        <v>539</v>
-      </c>
-      <c r="V49" t="s">
-        <v>543</v>
-      </c>
-      <c r="X49" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>955</v>
+        <v>878</v>
       </c>
       <c r="C50" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D50" t="s">
-        <v>831</v>
-      </c>
-      <c r="E50" t="s">
-        <v>956</v>
-      </c>
-      <c r="F50" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>957</v>
+        <v>543</v>
+      </c>
+      <c r="H50" t="s">
+        <v>551</v>
+      </c>
+      <c r="K50" t="s">
+        <v>660</v>
       </c>
       <c r="L50" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M50" t="s">
-        <v>836</v>
-      </c>
-      <c r="N50" t="s">
-        <v>894</v>
-      </c>
-      <c r="O50" t="s">
-        <v>837</v>
-      </c>
-      <c r="P50" t="s">
-        <v>896</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50" t="s">
-        <v>539</v>
-      </c>
-      <c r="V50" t="s">
-        <v>543</v>
-      </c>
-      <c r="X50" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>958</v>
+        <v>879</v>
       </c>
       <c r="C51" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D51" t="s">
-        <v>831</v>
-      </c>
-      <c r="E51" t="s">
-        <v>959</v>
-      </c>
-      <c r="F51" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>960</v>
+        <v>543</v>
+      </c>
+      <c r="H51" t="s">
+        <v>551</v>
+      </c>
+      <c r="K51" t="s">
+        <v>660</v>
       </c>
       <c r="L51" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M51" t="s">
-        <v>836</v>
-      </c>
-      <c r="N51" t="s">
-        <v>894</v>
-      </c>
-      <c r="O51" t="s">
-        <v>837</v>
-      </c>
-      <c r="P51" t="s">
-        <v>896</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51" t="s">
-        <v>539</v>
-      </c>
-      <c r="V51" t="s">
-        <v>543</v>
-      </c>
-      <c r="X51" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>961</v>
+        <v>880</v>
       </c>
       <c r="C52" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D52" t="s">
-        <v>831</v>
-      </c>
-      <c r="E52" t="s">
-        <v>962</v>
-      </c>
-      <c r="F52" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>963</v>
+        <v>543</v>
+      </c>
+      <c r="H52" t="s">
+        <v>551</v>
+      </c>
+      <c r="K52" t="s">
+        <v>660</v>
       </c>
       <c r="L52" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M52" t="s">
-        <v>836</v>
-      </c>
-      <c r="N52" t="s">
-        <v>894</v>
-      </c>
-      <c r="O52" t="s">
-        <v>837</v>
-      </c>
-      <c r="P52" t="s">
-        <v>896</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>539</v>
-      </c>
-      <c r="V52" t="s">
-        <v>543</v>
-      </c>
-      <c r="X52" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>964</v>
+        <v>881</v>
       </c>
       <c r="C53" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D53" t="s">
-        <v>831</v>
-      </c>
-      <c r="E53" t="s">
-        <v>965</v>
-      </c>
-      <c r="F53" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>966</v>
+        <v>543</v>
+      </c>
+      <c r="H53" t="s">
+        <v>551</v>
+      </c>
+      <c r="K53" t="s">
+        <v>660</v>
       </c>
       <c r="L53" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M53" t="s">
-        <v>836</v>
-      </c>
-      <c r="N53" t="s">
-        <v>894</v>
-      </c>
-      <c r="O53" t="s">
-        <v>837</v>
-      </c>
-      <c r="P53" t="s">
-        <v>896</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53" t="s">
-        <v>539</v>
-      </c>
-      <c r="V53" t="s">
-        <v>543</v>
-      </c>
-      <c r="X53" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>967</v>
+        <v>882</v>
       </c>
       <c r="C54" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D54" t="s">
-        <v>831</v>
-      </c>
-      <c r="E54" t="s">
-        <v>968</v>
-      </c>
-      <c r="F54" t="s">
-        <v>850</v>
+        <v>146</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>969</v>
+        <v>543</v>
+      </c>
+      <c r="H54" t="s">
+        <v>551</v>
+      </c>
+      <c r="K54" t="s">
+        <v>660</v>
       </c>
       <c r="L54" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M54" t="s">
-        <v>836</v>
-      </c>
-      <c r="N54" t="s">
-        <v>894</v>
-      </c>
-      <c r="O54" t="s">
-        <v>837</v>
-      </c>
-      <c r="P54" t="s">
-        <v>896</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54" t="s">
-        <v>539</v>
-      </c>
-      <c r="V54" t="s">
-        <v>543</v>
-      </c>
-      <c r="X54" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>970</v>
+        <v>883</v>
       </c>
       <c r="C55" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D55" t="s">
-        <v>831</v>
-      </c>
-      <c r="E55" t="s">
-        <v>971</v>
-      </c>
-      <c r="F55" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>972</v>
+        <v>543</v>
+      </c>
+      <c r="H55" t="s">
+        <v>551</v>
+      </c>
+      <c r="K55" t="s">
+        <v>660</v>
       </c>
       <c r="L55" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M55" t="s">
-        <v>836</v>
-      </c>
-      <c r="N55" t="s">
-        <v>894</v>
-      </c>
-      <c r="O55" t="s">
-        <v>837</v>
-      </c>
-      <c r="P55" t="s">
-        <v>896</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55" t="s">
-        <v>539</v>
-      </c>
-      <c r="V55" t="s">
-        <v>543</v>
-      </c>
-      <c r="X55" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>973</v>
+        <v>884</v>
       </c>
       <c r="C56" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D56" t="s">
-        <v>831</v>
-      </c>
-      <c r="E56" t="s">
-        <v>974</v>
-      </c>
-      <c r="F56" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>975</v>
+        <v>543</v>
+      </c>
+      <c r="H56" t="s">
+        <v>551</v>
+      </c>
+      <c r="K56" t="s">
+        <v>660</v>
       </c>
       <c r="L56" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M56" t="s">
-        <v>836</v>
-      </c>
-      <c r="N56" t="s">
-        <v>894</v>
-      </c>
-      <c r="O56" t="s">
-        <v>837</v>
-      </c>
-      <c r="P56" t="s">
-        <v>896</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>539</v>
-      </c>
-      <c r="V56" t="s">
-        <v>543</v>
-      </c>
-      <c r="X56" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>976</v>
+        <v>885</v>
       </c>
       <c r="C57" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D57" t="s">
-        <v>831</v>
-      </c>
-      <c r="E57" t="s">
-        <v>977</v>
-      </c>
-      <c r="F57" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>978</v>
+        <v>543</v>
+      </c>
+      <c r="H57" t="s">
+        <v>551</v>
+      </c>
+      <c r="K57" t="s">
+        <v>660</v>
       </c>
       <c r="L57" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M57" t="s">
-        <v>836</v>
-      </c>
-      <c r="N57" t="s">
-        <v>894</v>
-      </c>
-      <c r="O57" t="s">
-        <v>837</v>
-      </c>
-      <c r="P57" t="s">
-        <v>896</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
-        <v>539</v>
-      </c>
-      <c r="V57" t="s">
-        <v>543</v>
-      </c>
-      <c r="X57" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>979</v>
+        <v>886</v>
       </c>
       <c r="C58" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D58" t="s">
-        <v>831</v>
-      </c>
-      <c r="E58" t="s">
-        <v>980</v>
-      </c>
-      <c r="F58" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>981</v>
+        <v>543</v>
+      </c>
+      <c r="H58" t="s">
+        <v>551</v>
+      </c>
+      <c r="K58" t="s">
+        <v>660</v>
       </c>
       <c r="L58" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M58" t="s">
-        <v>836</v>
-      </c>
-      <c r="N58" t="s">
-        <v>894</v>
-      </c>
-      <c r="O58" t="s">
-        <v>837</v>
-      </c>
-      <c r="P58" t="s">
-        <v>896</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58" t="s">
-        <v>539</v>
-      </c>
-      <c r="V58" t="s">
-        <v>543</v>
-      </c>
-      <c r="X58" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>982</v>
+        <v>887</v>
       </c>
       <c r="C59" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D59" t="s">
-        <v>831</v>
-      </c>
-      <c r="E59" t="s">
-        <v>983</v>
-      </c>
-      <c r="F59" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>984</v>
+        <v>543</v>
+      </c>
+      <c r="H59" t="s">
+        <v>551</v>
+      </c>
+      <c r="K59" t="s">
+        <v>660</v>
       </c>
       <c r="L59" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M59" t="s">
-        <v>836</v>
-      </c>
-      <c r="N59" t="s">
-        <v>894</v>
-      </c>
-      <c r="O59" t="s">
-        <v>837</v>
-      </c>
-      <c r="P59" t="s">
-        <v>896</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
-        <v>539</v>
-      </c>
-      <c r="V59" t="s">
-        <v>543</v>
-      </c>
-      <c r="X59" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>985</v>
+        <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D60" t="s">
-        <v>831</v>
-      </c>
-      <c r="E60" t="s">
-        <v>986</v>
-      </c>
-      <c r="F60" t="s">
-        <v>850</v>
+        <v>147</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>987</v>
+        <v>543</v>
+      </c>
+      <c r="H60" t="s">
+        <v>551</v>
+      </c>
+      <c r="K60" t="s">
+        <v>660</v>
       </c>
       <c r="L60" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M60" t="s">
-        <v>836</v>
-      </c>
-      <c r="N60" t="s">
-        <v>894</v>
-      </c>
-      <c r="O60" t="s">
-        <v>837</v>
-      </c>
-      <c r="P60" t="s">
-        <v>896</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="s">
-        <v>539</v>
-      </c>
-      <c r="V60" t="s">
-        <v>543</v>
-      </c>
-      <c r="X60" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>988</v>
+        <v>889</v>
       </c>
       <c r="C61" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="D61" t="s">
-        <v>831</v>
-      </c>
-      <c r="E61" t="s">
-        <v>989</v>
-      </c>
-      <c r="F61" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>990</v>
+        <v>543</v>
+      </c>
+      <c r="H61" t="s">
+        <v>551</v>
+      </c>
+      <c r="K61" t="s">
+        <v>660</v>
       </c>
       <c r="L61" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M61" t="s">
-        <v>836</v>
-      </c>
-      <c r="N61" t="s">
-        <v>894</v>
-      </c>
-      <c r="O61" t="s">
-        <v>837</v>
-      </c>
-      <c r="P61" t="s">
-        <v>896</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>539</v>
-      </c>
-      <c r="V61" t="s">
-        <v>543</v>
-      </c>
-      <c r="X61" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>991</v>
+        <v>890</v>
       </c>
       <c r="C62" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D62" t="s">
-        <v>831</v>
-      </c>
-      <c r="E62" t="s">
-        <v>992</v>
-      </c>
-      <c r="F62" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>993</v>
+        <v>543</v>
+      </c>
+      <c r="H62" t="s">
+        <v>551</v>
+      </c>
+      <c r="K62" t="s">
+        <v>660</v>
       </c>
       <c r="L62" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M62" t="s">
-        <v>836</v>
-      </c>
-      <c r="N62" t="s">
-        <v>894</v>
-      </c>
-      <c r="O62" t="s">
-        <v>837</v>
-      </c>
-      <c r="P62" t="s">
-        <v>896</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>539</v>
-      </c>
-      <c r="V62" t="s">
-        <v>543</v>
-      </c>
-      <c r="X62" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>994</v>
+        <v>891</v>
       </c>
       <c r="C63" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D63" t="s">
-        <v>831</v>
-      </c>
-      <c r="E63" t="s">
-        <v>995</v>
-      </c>
-      <c r="F63" t="s">
-        <v>850</v>
+        <v>146</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>996</v>
+        <v>543</v>
+      </c>
+      <c r="H63" t="s">
+        <v>551</v>
+      </c>
+      <c r="K63" t="s">
+        <v>660</v>
       </c>
       <c r="L63" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M63" t="s">
-        <v>836</v>
-      </c>
-      <c r="N63" t="s">
-        <v>894</v>
-      </c>
-      <c r="O63" t="s">
-        <v>837</v>
-      </c>
-      <c r="P63" t="s">
-        <v>896</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>539</v>
-      </c>
-      <c r="V63" t="s">
-        <v>543</v>
-      </c>
-      <c r="X63" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>997</v>
+        <v>892</v>
       </c>
       <c r="C64" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D64" t="s">
-        <v>831</v>
-      </c>
-      <c r="E64" t="s">
-        <v>998</v>
-      </c>
-      <c r="F64" t="s">
-        <v>833</v>
+        <v>146</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>999</v>
+        <v>543</v>
+      </c>
+      <c r="H64" t="s">
+        <v>551</v>
+      </c>
+      <c r="K64" t="s">
+        <v>660</v>
       </c>
       <c r="L64" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M64" t="s">
-        <v>836</v>
-      </c>
-      <c r="N64" t="s">
-        <v>894</v>
-      </c>
-      <c r="O64" t="s">
-        <v>837</v>
-      </c>
-      <c r="P64" t="s">
-        <v>896</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64" t="s">
-        <v>539</v>
-      </c>
-      <c r="V64" t="s">
-        <v>543</v>
-      </c>
-      <c r="X64" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>1000</v>
+        <v>893</v>
       </c>
       <c r="C65" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D65" t="s">
-        <v>831</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F65" t="s">
-        <v>833</v>
+        <v>147</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>1002</v>
+        <v>543</v>
+      </c>
+      <c r="H65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>660</v>
       </c>
       <c r="L65" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M65" t="s">
-        <v>836</v>
-      </c>
-      <c r="N65" t="s">
-        <v>894</v>
-      </c>
-      <c r="O65" t="s">
-        <v>837</v>
-      </c>
-      <c r="P65" t="s">
-        <v>896</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>539</v>
-      </c>
-      <c r="V65" t="s">
-        <v>543</v>
-      </c>
-      <c r="X65" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>1003</v>
+        <v>894</v>
       </c>
       <c r="C66" t="s">
-        <v>894</v>
+        <v>833</v>
       </c>
       <c r="D66" t="s">
-        <v>831</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F66" t="s">
-        <v>850</v>
+        <v>146</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>1004</v>
+        <v>543</v>
+      </c>
+      <c r="H66" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" t="s">
+        <v>660</v>
       </c>
       <c r="L66" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="M66" t="s">
-        <v>836</v>
-      </c>
-      <c r="N66" t="s">
-        <v>894</v>
-      </c>
-      <c r="O66" t="s">
-        <v>837</v>
-      </c>
-      <c r="P66" t="s">
-        <v>896</v>
-      </c>
-      <c r="T66">
+        <v>825</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>895</v>
+      </c>
+      <c r="C67" t="s">
+        <v>833</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
-      <c r="U66" t="s">
-        <v>539</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="G67" t="s">
         <v>543</v>
       </c>
-      <c r="X66" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="H67" t="s">
+        <v>551</v>
+      </c>
+      <c r="K67" t="s">
+        <v>660</v>
+      </c>
+      <c r="L67" t="s">
+        <v>822</v>
+      </c>
+      <c r="M67" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>31</v>
+      </c>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7189,7 +5758,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
